--- a/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C505F5E8-D95B-407C-9F3D-41E8ADE148A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1D8EFA-AE05-46AE-8436-1B84B6054EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
   <si>
     <t>PERIOD</t>
   </si>
@@ -178,6 +178,255 @@
   </si>
   <si>
     <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>UT(1-1-25)</t>
+  </si>
+  <si>
+    <t>UT(0-6-48</t>
+  </si>
+  <si>
+    <t>UT(1-0-19)</t>
+  </si>
+  <si>
+    <t>UT(1-3-43)</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>ANNIV 5/17</t>
+  </si>
+  <si>
+    <t>DOMESTIC 5/10</t>
+  </si>
+  <si>
+    <t>DOMESTIC 6/25</t>
+  </si>
+  <si>
+    <t>UT(1-5-56)</t>
+  </si>
+  <si>
+    <t>UT(0-5-38)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SOLO P(1-0-0)</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>8/22,29/2007</t>
+  </si>
+  <si>
+    <t>UT(2-3-10)</t>
+  </si>
+  <si>
+    <t>SOLO P(2-0-0)</t>
+  </si>
+  <si>
+    <t>SOLO P 9/6,7</t>
+  </si>
+  <si>
+    <t>SOLO  P 8/13</t>
+  </si>
+  <si>
+    <t>UT(0-4-51)</t>
+  </si>
+  <si>
+    <t>UT(3-7-16)</t>
+  </si>
+  <si>
+    <t>UT(3-0-07)</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>11/15,16,18,21)</t>
+  </si>
+  <si>
+    <t>UT(1-3-09)</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>UT(1-7-43)</t>
+  </si>
+  <si>
+    <t>UT(1-2-30)</t>
+  </si>
+  <si>
+    <t>UT(2-2-37)</t>
+  </si>
+  <si>
+    <t>UT(1-5-01)</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(1-4-15)</t>
+  </si>
+  <si>
+    <t>UT(1-6-6)</t>
+  </si>
+  <si>
+    <t>7/3,4/2007</t>
+  </si>
+  <si>
+    <t>DOMESTIC 7/28</t>
+  </si>
+  <si>
+    <t>UT(1-7-10)</t>
+  </si>
+  <si>
+    <t>8/12, 9/19</t>
+  </si>
+  <si>
+    <t>UT(1-2-34)</t>
+  </si>
+  <si>
+    <t>SOLO P 9/29,30</t>
+  </si>
+  <si>
+    <t>DOMESTIC 10/13</t>
+  </si>
+  <si>
+    <t>SOLO P 10/22</t>
+  </si>
+  <si>
+    <t>SOLO P 11/7,11</t>
+  </si>
+  <si>
+    <t>UT(1-5-27)</t>
+  </si>
+  <si>
+    <t>UT(4-4-21)</t>
+  </si>
+  <si>
+    <t>SOLO P 12/4</t>
+  </si>
+  <si>
+    <t>SOLO P (1-0-0)</t>
+  </si>
+  <si>
+    <t>SOLO P 12/9</t>
+  </si>
+  <si>
+    <t>UT(1-3-19)</t>
+  </si>
+  <si>
+    <t>UT(1-6-20)</t>
+  </si>
+  <si>
+    <t>UT(2-4-59)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2/6</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2/13</t>
+  </si>
+  <si>
+    <t>3/4,6/2009</t>
+  </si>
+  <si>
+    <t>DOEMESTIC 3/17/09</t>
+  </si>
+  <si>
+    <t>SOLO P 4/1,2</t>
+  </si>
+  <si>
+    <t>SOLO P 5/18</t>
+  </si>
+  <si>
+    <t>UT(1-7-52)</t>
+  </si>
+  <si>
+    <t>UT(4-7-42)</t>
+  </si>
+  <si>
+    <t>UT(3-1-25)</t>
+  </si>
+  <si>
+    <t>UT(1-3-2)</t>
+  </si>
+  <si>
+    <t>UT(1-2-35)</t>
+  </si>
+  <si>
+    <t>UT(0-6-09)</t>
+  </si>
+  <si>
+    <t>UT(1-0-44)</t>
+  </si>
+  <si>
+    <t>UT(0-2-35)</t>
+  </si>
+  <si>
+    <t>UT(0-1-19)</t>
+  </si>
+  <si>
+    <t>UT(0-3-05)</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>UT(0-4-49)</t>
+  </si>
+  <si>
+    <t>UT(0-3-9)</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>UT(0-4-39)</t>
+  </si>
+  <si>
+    <t>UT(0-4-55)</t>
+  </si>
+  <si>
+    <t>UT(0-3-48)</t>
+  </si>
+  <si>
+    <t>UT(0-7-25)</t>
+  </si>
+  <si>
+    <t>UT(0-0-56)</t>
+  </si>
+  <si>
+    <t>UT(0-1-55)</t>
+  </si>
+  <si>
+    <t>UT(0-1-20)</t>
+  </si>
+  <si>
+    <t>UT(0-2-12)</t>
+  </si>
+  <si>
+    <t>UT(0-0-31)</t>
+  </si>
+  <si>
+    <t>UT(0-6-10)</t>
   </si>
 </sst>
 </file>
@@ -414,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,9 +783,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,6 +834,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2576,7 +2828,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K265" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -2954,12 +3206,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A87" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90:C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2981,62 +3233,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3062,18 +3314,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3120,7 +3372,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
+        <v>225.93099999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3130,7 +3382,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3156,7 +3408,9 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="59" t="s">
+        <v>45</v>
+      </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
       <c r="D11" s="39"/>
@@ -3172,15 +3426,23 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="40">
+        <v>39083</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1.177</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
@@ -3188,15 +3450,23 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="40">
+        <v>39114</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0.85</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
@@ -3204,15 +3474,23 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="40">
+        <v>39142</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="39">
+        <v>1.04</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
@@ -3220,15 +3498,23 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="39"/>
+      <c r="A15" s="40">
+        <v>39173</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1.4649999999999999</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
@@ -3236,79 +3522,107 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="40">
+        <v>39203</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="42"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="G16" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="42"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="39"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
+      <c r="F17" s="15"/>
+      <c r="G17" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
+      <c r="F18" s="15"/>
+      <c r="G18" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="42"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="42">
+        <v>1.742</v>
+      </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="13" t="str">
+      <c r="F19" s="15"/>
+      <c r="G19" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="39"/>
+      <c r="A20" s="40">
+        <v>39234</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0.70399999999999996</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
@@ -3316,24 +3630,36 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="40">
+        <v>39264</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H21" s="39"/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="60">
+        <v>39287</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -3345,13 +3671,19 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="60" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39">
+        <v>2</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -3361,13 +3693,19 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="60" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="39">
+        <v>2.3959999999999999</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
@@ -3377,29 +3715,41 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="40">
+        <v>39295</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="39">
+        <v>0.60599999999999998</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13" t="str">
@@ -3412,15 +3762,23 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="40">
+        <v>39326</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D27" s="39">
+        <v>3.9079999999999999</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
@@ -3428,15 +3786,23 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="39"/>
+      <c r="A28" s="40">
+        <v>39356</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="39">
+        <v>3.0150000000000001</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
@@ -3444,24 +3810,36 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="40">
+        <v>39387</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H29" s="39"/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="39">
+        <v>4</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
@@ -3470,16 +3848,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="39">
+        <v>1</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="60">
+        <v>39409</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>1.3940000000000001</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
@@ -3492,15 +3878,23 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="39"/>
+      <c r="A32" s="40">
+        <v>39417</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="39">
+        <v>3</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
@@ -3508,7 +3902,9 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
+      <c r="A33" s="59" t="s">
+        <v>47</v>
+      </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -3524,15 +3920,23 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="40">
+        <v>39448</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="39">
+        <v>1.9649999999999999</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
@@ -3540,15 +3944,23 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="40">
+        <v>39479</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="39">
+        <v>1.3120000000000001</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
@@ -3556,15 +3968,23 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="39"/>
+      <c r="A36" s="40">
+        <v>39508</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D36" s="39">
+        <v>2.327</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
@@ -3572,15 +3992,23 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="40">
+        <v>39539</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D37" s="39">
+        <v>1.627</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
@@ -3588,26 +4016,40 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="40">
+        <v>39569</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="39">
+        <v>1</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="60">
+        <v>39243</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="39">
+        <v>1.5310000000000001</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13" t="str">
@@ -3617,18 +4059,26 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="60"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="39"/>
+      <c r="A40" s="40">
+        <v>39600</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="39">
+        <v>1.762</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
@@ -3636,24 +4086,36 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="39"/>
+      <c r="A41" s="40">
+        <v>39630</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="39">
+        <v>2</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
@@ -3665,13 +4127,19 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="39"/>
+      <c r="D43" s="39">
+        <v>1.8959999999999999</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13" t="str">
@@ -3684,26 +4152,40 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="39"/>
+      <c r="A44" s="40">
+        <v>39661</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D44" s="39">
+        <v>2</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="39"/>
+      <c r="D45" s="39">
+        <v>1.321</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13" t="str">
@@ -3716,24 +4198,34 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="13"/>
+      <c r="A46" s="40">
+        <v>39692</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
@@ -3745,11 +4237,15 @@
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
@@ -3761,11 +4257,15 @@
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
@@ -3777,13 +4277,19 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="39"/>
+      <c r="D50" s="39">
+        <v>1.681</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13" t="str">
@@ -3796,15 +4302,23 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="39"/>
+      <c r="A51" s="40">
+        <v>39722</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="39">
+        <v>4.585</v>
+      </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
@@ -3812,24 +4326,34 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
+      <c r="A52" s="40">
+        <v>39753</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
@@ -3845,7 +4369,9 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
@@ -3857,13 +4383,19 @@
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="39"/>
+      <c r="D55" s="39">
+        <v>1.415</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="str">
@@ -3876,15 +4408,23 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="39"/>
+      <c r="A56" s="40">
+        <v>39783</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="39">
+        <v>1.792</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G56" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
@@ -3892,7 +4432,9 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
+      <c r="A57" s="59" t="s">
+        <v>48</v>
+      </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
       <c r="D57" s="39"/>
@@ -3908,15 +4450,23 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="39"/>
+      <c r="A58" s="40">
+        <v>39814</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D58" s="39">
+        <v>2.6230000000000002</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
@@ -3924,24 +4474,34 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
+      <c r="A59" s="40">
+        <v>39845</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
@@ -3953,11 +4513,15 @@
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
@@ -3969,11 +4533,15 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
@@ -3985,11 +4553,15 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
@@ -4001,11 +4573,15 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
@@ -4017,13 +4593,19 @@
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C65" s="13"/>
-      <c r="D65" s="39"/>
+      <c r="D65" s="39">
+        <v>1.9830000000000001</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13" t="str">
@@ -4036,15 +4618,23 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="39"/>
+      <c r="A66" s="40">
+        <v>39873</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D66" s="39">
+        <v>4.9619999999999997</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
@@ -4052,15 +4642,23 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="39"/>
+      <c r="A67" s="40">
+        <v>39904</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D67" s="39">
+        <v>3.177</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
@@ -4068,15 +4666,23 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="39"/>
+      <c r="A68" s="40">
+        <v>39934</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="39">
+        <v>1.379</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
@@ -4084,15 +4690,23 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="39"/>
+      <c r="A69" s="40">
+        <v>39965</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="39">
+        <v>1.323</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
@@ -4100,15 +4714,23 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="39"/>
+      <c r="A70" s="40">
+        <v>39995</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D70" s="39">
+        <v>0.76900000000000002</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
@@ -4116,15 +4738,23 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="39"/>
+      <c r="A71" s="40">
+        <v>40026</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D71" s="39">
+        <v>1.0920000000000001</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
@@ -4132,15 +4762,23 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="39"/>
+      <c r="A72" s="40">
+        <v>40057</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="39">
+        <v>0.32300000000000001</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
@@ -4148,15 +4786,23 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="39"/>
+      <c r="A73" s="40">
+        <v>40087</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="39">
+        <v>0.16500000000000001</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
@@ -4164,15 +4810,23 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="39"/>
+      <c r="A74" s="40">
+        <v>40118</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D74" s="39">
+        <v>0.38500000000000001</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
@@ -4180,15 +4834,23 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="39"/>
+      <c r="A75" s="40">
+        <v>40148</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D75" s="39">
+        <v>0.60199999999999998</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -4196,7 +4858,9 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
+      <c r="A76" s="59" t="s">
+        <v>114</v>
+      </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4212,15 +4876,23 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="39"/>
+      <c r="A77" s="40">
+        <v>40179</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="39">
+        <v>0.39400000000000002</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4228,15 +4900,23 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="39"/>
+      <c r="A78" s="40">
+        <v>40210</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="39">
+        <v>0.58099999999999996</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4244,15 +4924,23 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="39"/>
+      <c r="A79" s="40">
+        <v>40238</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D79" s="39">
+        <v>0.61499999999999999</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4260,15 +4948,23 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="39"/>
+      <c r="A80" s="40">
+        <v>40269</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="39">
+        <v>0.47499999999999998</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4276,15 +4972,23 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="39"/>
+      <c r="A81" s="40">
+        <v>40299</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D81" s="39">
+        <v>0.92700000000000005</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4292,15 +4996,23 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="A82" s="40">
+        <v>40330</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D82" s="39">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4308,15 +5020,23 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
+      <c r="A83" s="40">
+        <v>40360</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="39">
+        <v>0.24</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4324,15 +5044,23 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+      <c r="A84" s="40">
+        <v>40391</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D84" s="39">
+        <v>0.16700000000000001</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4340,15 +5068,23 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
+      <c r="A85" s="40">
+        <v>40422</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D85" s="39">
+        <v>0.27500000000000002</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4356,15 +5092,23 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="39"/>
+      <c r="A86" s="40">
+        <v>40452</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D86" s="39">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -4372,15 +5116,23 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="A87" s="40">
+        <v>40483</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="39">
+        <v>0.77100000000000002</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -4388,15 +5140,23 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="39"/>
+      <c r="A88" s="40">
+        <v>40513</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D88" s="39">
+        <v>0.32300000000000001</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -4404,7 +5164,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="59" t="s">
+        <v>117</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4420,15 +5182,19 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>40544</v>
+      </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -4436,15 +5202,19 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>40575</v>
+      </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -4452,15 +5222,19 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>40603</v>
+      </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
@@ -4468,15 +5242,19 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>40634</v>
+      </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
@@ -4484,15 +5262,19 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>40664</v>
+      </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
@@ -4500,15 +5282,19 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>40695</v>
+      </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
@@ -4516,15 +5302,19 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>40725</v>
+      </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
@@ -4532,15 +5322,19 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>40756</v>
+      </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
@@ -4548,15 +5342,19 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>40787</v>
+      </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
@@ -4564,15 +5362,19 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>40817</v>
+      </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
@@ -4580,15 +5382,19 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>40848</v>
+      </c>
       <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
@@ -4596,15 +5402,19 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>40878</v>
+      </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
@@ -4612,15 +5422,19 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>40909</v>
+      </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
@@ -4628,15 +5442,19 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>40940</v>
+      </c>
       <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
@@ -4644,15 +5462,19 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>40969</v>
+      </c>
       <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
@@ -4660,15 +5482,19 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>41000</v>
+      </c>
       <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
+      <c r="C105" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G105" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
@@ -4676,15 +5502,19 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>41030</v>
+      </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
@@ -4692,15 +5522,19 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>41061</v>
+      </c>
       <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
@@ -4708,15 +5542,19 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>41091</v>
+      </c>
       <c r="B108" s="20"/>
-      <c r="C108" s="13"/>
+      <c r="C108" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G108" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
@@ -4724,15 +5562,19 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>41122</v>
+      </c>
       <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
@@ -4740,15 +5582,19 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>41153</v>
+      </c>
       <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
@@ -4756,15 +5602,19 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>41183</v>
+      </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
@@ -4772,15 +5622,19 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>41214</v>
+      </c>
       <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
@@ -4788,15 +5642,19 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>41244</v>
+      </c>
       <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
@@ -4804,15 +5662,19 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>41275</v>
+      </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
@@ -4820,15 +5682,19 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>41306</v>
+      </c>
       <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
@@ -4836,15 +5702,19 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>41334</v>
+      </c>
       <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
+      <c r="C116" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D116" s="39"/>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G116" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
@@ -4852,15 +5722,19 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>41365</v>
+      </c>
       <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
@@ -4868,15 +5742,19 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>41395</v>
+      </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G118" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
@@ -4884,15 +5762,19 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>41426</v>
+      </c>
       <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
@@ -4900,15 +5782,19 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>41456</v>
+      </c>
       <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
@@ -4916,15 +5802,19 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>41487</v>
+      </c>
       <c r="B121" s="20"/>
-      <c r="C121" s="13"/>
+      <c r="C121" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D121" s="39"/>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G121" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
@@ -4932,15 +5822,19 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>41518</v>
+      </c>
       <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
+      <c r="C122" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D122" s="39"/>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G122" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
@@ -4948,15 +5842,19 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>41548</v>
+      </c>
       <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
+      <c r="C123" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D123" s="39"/>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G123" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H123" s="39"/>
       <c r="I123" s="9"/>
@@ -4964,15 +5862,19 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>41579</v>
+      </c>
       <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
+      <c r="C124" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D124" s="39"/>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G124" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
@@ -4980,15 +5882,19 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>41609</v>
+      </c>
       <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
+      <c r="C125" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D125" s="39"/>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G125" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
@@ -4996,15 +5902,19 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>41640</v>
+      </c>
       <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
+      <c r="C126" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D126" s="39"/>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G126" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
@@ -5012,15 +5922,19 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>41671</v>
+      </c>
       <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D127" s="39"/>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
@@ -5028,15 +5942,19 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>41699</v>
+      </c>
       <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
+      <c r="C128" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D128" s="39"/>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G128" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H128" s="39"/>
       <c r="I128" s="9"/>
@@ -5044,15 +5962,19 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>41730</v>
+      </c>
       <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
+      <c r="C129" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D129" s="39"/>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G129" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
@@ -5060,20 +5982,2608 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40">
+        <v>41760</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
+      <c r="F130" s="20"/>
+      <c r="G130" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H130" s="39"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40">
+        <v>41791</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40">
+        <v>41821</v>
+      </c>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40">
+        <v>41852</v>
+      </c>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40">
+        <v>41883</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40">
+        <v>41913</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40">
+        <v>41944</v>
+      </c>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="40">
+        <v>41974</v>
+      </c>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="40">
+        <v>42005</v>
+      </c>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="40">
+        <v>42036</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40">
+        <v>42064</v>
+      </c>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40">
+        <v>42095</v>
+      </c>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D141" s="39"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="40">
+        <v>42125</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="40">
+        <v>42156</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="40">
+        <v>42186</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40">
+        <v>42217</v>
+      </c>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="40">
+        <v>42248</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="40">
+        <v>42278</v>
+      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D147" s="39"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H147" s="39"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="40">
+        <v>42309</v>
+      </c>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="40">
+        <v>42339</v>
+      </c>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="40">
+        <v>42370</v>
+      </c>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="40">
+        <v>42401</v>
+      </c>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D151" s="39"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H151" s="39"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="40">
+        <v>42430</v>
+      </c>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D152" s="39"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H152" s="39"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="40">
+        <v>42461</v>
+      </c>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="40">
+        <v>42491</v>
+      </c>
+      <c r="B154" s="20"/>
+      <c r="C154" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D154" s="39"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H154" s="39"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="40">
+        <v>42522</v>
+      </c>
+      <c r="B155" s="20"/>
+      <c r="C155" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D155" s="39"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H155" s="39"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="40">
+        <v>42552</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D156" s="39"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H156" s="39"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="40">
+        <v>42583</v>
+      </c>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D157" s="39"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="40">
+        <v>42614</v>
+      </c>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D158" s="39"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="40">
+        <v>42644</v>
+      </c>
+      <c r="B159" s="20"/>
+      <c r="C159" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D159" s="39"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H159" s="39"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="40">
+        <v>42675</v>
+      </c>
+      <c r="B160" s="15"/>
+      <c r="C160" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D160" s="42"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H160" s="42"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="15"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="40">
+        <v>42705</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D161" s="39"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H161" s="39"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="20"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="40">
+        <v>42736</v>
+      </c>
+      <c r="B162" s="20"/>
+      <c r="C162" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D162" s="39"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H162" s="39"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="20"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="40">
+        <v>42767</v>
+      </c>
+      <c r="B163" s="20"/>
+      <c r="C163" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D163" s="39"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H163" s="39"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="20"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="40">
+        <v>42795</v>
+      </c>
+      <c r="B164" s="20"/>
+      <c r="C164" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D164" s="39"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H164" s="39"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="20"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="40">
+        <v>42826</v>
+      </c>
+      <c r="B165" s="20"/>
+      <c r="C165" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D165" s="39"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H165" s="39"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="20"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="40">
+        <v>42856</v>
+      </c>
+      <c r="B166" s="20"/>
+      <c r="C166" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D166" s="39"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H166" s="39"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="20"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="40">
+        <v>42887</v>
+      </c>
+      <c r="B167" s="20"/>
+      <c r="C167" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D167" s="39"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H167" s="39"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="20"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="40">
+        <v>42917</v>
+      </c>
+      <c r="B168" s="20"/>
+      <c r="C168" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D168" s="39"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H168" s="39"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="20"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="40">
+        <v>42948</v>
+      </c>
+      <c r="B169" s="20"/>
+      <c r="C169" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D169" s="39"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H169" s="39"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="20"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="40">
+        <v>42979</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D170" s="39"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H170" s="39"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="20"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="40">
+        <v>43009</v>
+      </c>
+      <c r="B171" s="20"/>
+      <c r="C171" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D171" s="39"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H171" s="39"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="20"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="40">
+        <v>43040</v>
+      </c>
+      <c r="B172" s="20"/>
+      <c r="C172" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D172" s="39"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H172" s="39"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="20"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="40">
+        <v>43070</v>
+      </c>
+      <c r="B173" s="20"/>
+      <c r="C173" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D173" s="39"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H173" s="39"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="20"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="40">
+        <v>43101</v>
+      </c>
+      <c r="B174" s="20"/>
+      <c r="C174" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D174" s="39"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H174" s="39"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="20"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="40">
+        <v>43132</v>
+      </c>
+      <c r="B175" s="20"/>
+      <c r="C175" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D175" s="39"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H175" s="39"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="20"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="40">
+        <v>43160</v>
+      </c>
+      <c r="B176" s="20"/>
+      <c r="C176" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D176" s="39"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H176" s="39"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="20"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="40">
+        <v>43191</v>
+      </c>
+      <c r="B177" s="20"/>
+      <c r="C177" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D177" s="39"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H177" s="39"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="20"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="40">
+        <v>43221</v>
+      </c>
+      <c r="B178" s="20"/>
+      <c r="C178" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D178" s="39"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H178" s="39"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="20"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="40">
+        <v>43252</v>
+      </c>
+      <c r="B179" s="20"/>
+      <c r="C179" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D179" s="39"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H179" s="39"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="20"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="40">
+        <v>43282</v>
+      </c>
+      <c r="B180" s="20"/>
+      <c r="C180" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D180" s="39"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H180" s="39"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="20"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="40">
+        <v>43313</v>
+      </c>
+      <c r="B181" s="20"/>
+      <c r="C181" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D181" s="39"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H181" s="39"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="20"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="40">
+        <v>43344</v>
+      </c>
+      <c r="B182" s="20"/>
+      <c r="C182" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D182" s="39"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H182" s="39"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="20"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="40">
+        <v>43374</v>
+      </c>
+      <c r="B183" s="20"/>
+      <c r="C183" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D183" s="39"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H183" s="39"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="20"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="40">
+        <v>43405</v>
+      </c>
+      <c r="B184" s="20"/>
+      <c r="C184" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D184" s="39"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H184" s="39"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="20"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="40">
+        <v>43435</v>
+      </c>
+      <c r="B185" s="20"/>
+      <c r="C185" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D185" s="39"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H185" s="39"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="20"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="40">
+        <v>43466</v>
+      </c>
+      <c r="B186" s="20"/>
+      <c r="C186" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D186" s="39"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H186" s="39"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="20"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="40">
+        <v>43497</v>
+      </c>
+      <c r="B187" s="20"/>
+      <c r="C187" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D187" s="39"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H187" s="39"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="20"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="40">
+        <v>43525</v>
+      </c>
+      <c r="B188" s="20"/>
+      <c r="C188" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D188" s="39"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H188" s="39"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="20"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="40">
+        <v>43556</v>
+      </c>
+      <c r="B189" s="20"/>
+      <c r="C189" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D189" s="39"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H189" s="39"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="20"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="40">
+        <v>43586</v>
+      </c>
+      <c r="B190" s="20"/>
+      <c r="C190" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D190" s="39"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H190" s="39"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="20"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="40">
+        <v>43617</v>
+      </c>
+      <c r="B191" s="20"/>
+      <c r="C191" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D191" s="39"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H191" s="39"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="20"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="40">
+        <v>43647</v>
+      </c>
+      <c r="B192" s="20"/>
+      <c r="C192" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D192" s="39"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H192" s="39"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="20"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="40">
+        <v>43678</v>
+      </c>
+      <c r="B193" s="20"/>
+      <c r="C193" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D193" s="39"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H193" s="39"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="20"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="40">
+        <v>43709</v>
+      </c>
+      <c r="B194" s="20"/>
+      <c r="C194" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D194" s="39"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H194" s="39"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="20"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="40">
+        <v>43739</v>
+      </c>
+      <c r="B195" s="20"/>
+      <c r="C195" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D195" s="39"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H195" s="39"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="20"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="40">
+        <v>43770</v>
+      </c>
+      <c r="B196" s="20"/>
+      <c r="C196" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D196" s="39"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H196" s="39"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="20"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="40">
+        <v>43800</v>
+      </c>
+      <c r="B197" s="20"/>
+      <c r="C197" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D197" s="39"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H197" s="39"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="20"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B198" s="20"/>
+      <c r="C198" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D198" s="39"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H198" s="39"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="20"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="40">
+        <v>43862</v>
+      </c>
+      <c r="B199" s="20"/>
+      <c r="C199" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D199" s="39"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H199" s="39"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="20"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="40">
+        <v>43891</v>
+      </c>
+      <c r="B200" s="20"/>
+      <c r="C200" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D200" s="39"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H200" s="39"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="20"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="40">
+        <v>43922</v>
+      </c>
+      <c r="B201" s="20"/>
+      <c r="C201" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D201" s="39"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H201" s="39"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="20"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="40">
+        <v>43952</v>
+      </c>
+      <c r="B202" s="20"/>
+      <c r="C202" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D202" s="39"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H202" s="39"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="20"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B203" s="20"/>
+      <c r="C203" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D203" s="39"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H203" s="39"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="20"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B204" s="20"/>
+      <c r="C204" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D204" s="39"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H204" s="39"/>
+      <c r="I204" s="9"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="20"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B205" s="20"/>
+      <c r="C205" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D205" s="39"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H205" s="39"/>
+      <c r="I205" s="9"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="20"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="40">
+        <v>44075</v>
+      </c>
+      <c r="B206" s="20"/>
+      <c r="C206" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D206" s="39"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H206" s="39"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="20"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B207" s="20"/>
+      <c r="C207" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D207" s="39"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H207" s="39"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="20"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B208" s="20"/>
+      <c r="C208" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D208" s="39"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H208" s="39"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="20"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B209" s="20"/>
+      <c r="C209" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D209" s="39"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H209" s="39"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="20"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B210" s="20"/>
+      <c r="C210" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D210" s="39"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H210" s="39"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="20"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="40">
+        <v>44228</v>
+      </c>
+      <c r="B211" s="20"/>
+      <c r="C211" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D211" s="39"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H211" s="39"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="20"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="40">
+        <v>44256</v>
+      </c>
+      <c r="B212" s="20"/>
+      <c r="C212" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D212" s="39"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H212" s="39"/>
+      <c r="I212" s="9"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="20"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B213" s="20"/>
+      <c r="C213" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D213" s="39"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H213" s="39"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="20"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="40">
+        <v>44317</v>
+      </c>
+      <c r="B214" s="20"/>
+      <c r="C214" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D214" s="39"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H214" s="39"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="11"/>
+      <c r="K214" s="20"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="40">
+        <v>44348</v>
+      </c>
+      <c r="B215" s="20"/>
+      <c r="C215" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D215" s="39"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H215" s="39"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="20"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="40">
+        <v>44378</v>
+      </c>
+      <c r="B216" s="20"/>
+      <c r="C216" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D216" s="39"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H216" s="39"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="20"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B217" s="20"/>
+      <c r="C217" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D217" s="39"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H217" s="39"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="20"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="40">
+        <v>44440</v>
+      </c>
+      <c r="B218" s="20"/>
+      <c r="C218" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D218" s="39"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H218" s="39"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="20"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B219" s="20"/>
+      <c r="C219" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D219" s="39"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H219" s="39"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="20"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="40">
+        <v>44501</v>
+      </c>
+      <c r="B220" s="20"/>
+      <c r="C220" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D220" s="39"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H220" s="39"/>
+      <c r="I220" s="9"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="20"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B221" s="20"/>
+      <c r="C221" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D221" s="39"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H221" s="39"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="20"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B222" s="20"/>
+      <c r="C222" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D222" s="39"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H222" s="39"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="20"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B223" s="20"/>
+      <c r="C223" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D223" s="39"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H223" s="39"/>
+      <c r="I223" s="9"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="20"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B224" s="20"/>
+      <c r="C224" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D224" s="39"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H224" s="39"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="20"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B225" s="20"/>
+      <c r="C225" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D225" s="39"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H225" s="39"/>
+      <c r="I225" s="9"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="20"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B226" s="20"/>
+      <c r="C226" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D226" s="39"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H226" s="39"/>
+      <c r="I226" s="9"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="20"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B227" s="20"/>
+      <c r="C227" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D227" s="39"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H227" s="39"/>
+      <c r="I227" s="9"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="20"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B228" s="20"/>
+      <c r="C228" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D228" s="39"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H228" s="39"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="20"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B229" s="20"/>
+      <c r="C229" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D229" s="39"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H229" s="39"/>
+      <c r="I229" s="9"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="20"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B230" s="20"/>
+      <c r="C230" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D230" s="39"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H230" s="39"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="20"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B231" s="20"/>
+      <c r="C231" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D231" s="39"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H231" s="39"/>
+      <c r="I231" s="9"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="20"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D232" s="39"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H232" s="39"/>
+      <c r="I232" s="9"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="20"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B233" s="20"/>
+      <c r="C233" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D233" s="39"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H233" s="39"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="20"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B234" s="20"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="39"/>
+      <c r="E234" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>225.93099999999998</v>
+      </c>
+      <c r="F234" s="20"/>
+      <c r="G234" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H130" s="43"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="H234" s="39"/>
+      <c r="I234" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>282</v>
+      </c>
+      <c r="J234" s="11"/>
+      <c r="K234" s="20"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B235" s="20"/>
+      <c r="C235" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D235" s="39"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H235" s="39"/>
+      <c r="I235" s="9"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="20"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="40"/>
+      <c r="B236" s="20"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="39"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H236" s="39"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="20"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="40"/>
+      <c r="B237" s="20"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="39"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H237" s="39"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="20"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="40"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="39"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H238" s="39"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="20"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="40"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="39"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H239" s="39"/>
+      <c r="I239" s="9"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="20"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="40"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="39"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H240" s="39"/>
+      <c r="I240" s="9"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="20"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="40"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="39"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H241" s="39"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="20"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="40"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="39"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H242" s="39"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="20"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="40"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="39"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H243" s="39"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="20"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="40"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="39"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H244" s="39"/>
+      <c r="I244" s="9"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="20"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="40"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="39"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H245" s="39"/>
+      <c r="I245" s="9"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="20"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="40"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="39"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H246" s="39"/>
+      <c r="I246" s="9"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="20"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="40"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="39"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H247" s="39"/>
+      <c r="I247" s="9"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="20"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="40"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="39"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H248" s="39"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="20"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="40"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="39"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H249" s="39"/>
+      <c r="I249" s="9"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="20"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="40"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="39"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H250" s="39"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="20"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="40"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="39"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H251" s="39"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="20"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="40"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="39"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H252" s="39"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="20"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="40"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="39"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H253" s="39"/>
+      <c r="I253" s="9"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="20"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="40"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="39"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H254" s="39"/>
+      <c r="I254" s="9"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="20"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="40"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="39"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H255" s="39"/>
+      <c r="I255" s="9"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="20"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="40"/>
+      <c r="B256" s="20"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="39"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H256" s="39"/>
+      <c r="I256" s="9"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="20"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="40"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="39"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H257" s="39"/>
+      <c r="I257" s="9"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="20"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="40"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="39"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H258" s="39"/>
+      <c r="I258" s="9"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="20"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="40"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="39"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H259" s="39"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="20"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="40"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="39"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="20"/>
+      <c r="G260" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H260" s="39"/>
+      <c r="I260" s="9"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="20"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="40"/>
+      <c r="B261" s="20"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="39"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H261" s="39"/>
+      <c r="I261" s="9"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="20"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="40"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="39"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H262" s="39"/>
+      <c r="I262" s="9"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="20"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="40"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="39"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H263" s="39"/>
+      <c r="I263" s="9"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="20"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="40"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="39"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="20"/>
+      <c r="G264" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H264" s="39"/>
+      <c r="I264" s="9"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="20"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="40"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="39"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="20"/>
+      <c r="G265" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H265" s="39"/>
+      <c r="I265" s="9"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5121,7 +8631,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5139,17 +8649,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -5167,7 +8677,7 @@
       <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -5176,26 +8686,34 @@
       <c r="K2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="45" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="11">
+        <v>59.924999999999997</v>
+      </c>
+      <c r="B3" s="11">
+        <v>46.75</v>
+      </c>
       <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="47">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="45" t="str">
+      <c r="L3" s="44" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
@@ -5223,13 +8741,13 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="43"/>
+      <c r="I6" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
@@ -5244,7 +8762,7 @@
       <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="30" t="s">
         <v>39</v>
       </c>

--- a/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1D8EFA-AE05-46AE-8436-1B84B6054EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5075C267-386B-4E58-B4DD-ED249042E2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="289">
   <si>
     <t>PERIOD</t>
   </si>
@@ -427,6 +427,489 @@
   </si>
   <si>
     <t>UT(0-6-10)</t>
+  </si>
+  <si>
+    <t>UT(0-3-53)</t>
+  </si>
+  <si>
+    <t>UT(0-1-38)</t>
+  </si>
+  <si>
+    <t>UT(0-1-25)</t>
+  </si>
+  <si>
+    <t>UT(0-3-38)</t>
+  </si>
+  <si>
+    <t>UT(0-6-42)</t>
+  </si>
+  <si>
+    <t>UT(1-2-46)</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>11/18,22,12/5</t>
+  </si>
+  <si>
+    <t>DOMESTIC 12/26</t>
+  </si>
+  <si>
+    <t>UT(1-4-54)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 12/23</t>
+  </si>
+  <si>
+    <t>DOMESTIC 12/27</t>
+  </si>
+  <si>
+    <t>UT(3-1-3)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 1/24</t>
+  </si>
+  <si>
+    <t>DOMESTIC 1/27</t>
+  </si>
+  <si>
+    <t>UT(2-1-26)</t>
+  </si>
+  <si>
+    <t>UT(1-2-3)</t>
+  </si>
+  <si>
+    <t>UT(0-2-39)</t>
+  </si>
+  <si>
+    <t>SOLO P(7-0-0)</t>
+  </si>
+  <si>
+    <t>SOLO P 4/13 -25</t>
+  </si>
+  <si>
+    <t>MOURNING 4/26</t>
+  </si>
+  <si>
+    <t>UT(5-0-0)</t>
+  </si>
+  <si>
+    <t>UT(4-4-44)</t>
+  </si>
+  <si>
+    <t>8/6-8/2012</t>
+  </si>
+  <si>
+    <t>UT(4-4-52)</t>
+  </si>
+  <si>
+    <t>8/13-14/2012</t>
+  </si>
+  <si>
+    <t>UT(2-3-52)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/5,2/2012</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>9/27,28/2012</t>
+  </si>
+  <si>
+    <t>UT(2-0-20)</t>
+  </si>
+  <si>
+    <t>UT(3-7-30)</t>
+  </si>
+  <si>
+    <t>UT(2-3-19)</t>
+  </si>
+  <si>
+    <t>UT(1-7-5)</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>UT(1-7-51)</t>
+  </si>
+  <si>
+    <t>UT(2-2-49)</t>
+  </si>
+  <si>
+    <t>UT(3-4-53)</t>
+  </si>
+  <si>
+    <t>4/11,12/2013</t>
+  </si>
+  <si>
+    <t>DOMESTIC 4/26</t>
+  </si>
+  <si>
+    <t>UT(3-5-14)</t>
+  </si>
+  <si>
+    <t>ANNIV 5/21</t>
+  </si>
+  <si>
+    <t>5/28,29/2013</t>
+  </si>
+  <si>
+    <t>UT(3-3-59)</t>
+  </si>
+  <si>
+    <t>UT(3-3-11)</t>
+  </si>
+  <si>
+    <t>UT(1-5-46)</t>
+  </si>
+  <si>
+    <t>BDAY 8/12</t>
+  </si>
+  <si>
+    <t>UT(1-1-31)</t>
+  </si>
+  <si>
+    <t>UT(2-1-19)</t>
+  </si>
+  <si>
+    <t>UT(2-7-45)</t>
+  </si>
+  <si>
+    <t>12/12,13/2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>UT(1-5-1)</t>
+  </si>
+  <si>
+    <t>UT(1-5-44)</t>
+  </si>
+  <si>
+    <t>1/6,7/2014</t>
+  </si>
+  <si>
+    <t>UT(2-0-11)</t>
+  </si>
+  <si>
+    <t>3/24,25/2014</t>
+  </si>
+  <si>
+    <t>UT(2-1-12)</t>
+  </si>
+  <si>
+    <t>UT(0-6-57)</t>
+  </si>
+  <si>
+    <t>UT(1-2-40)</t>
+  </si>
+  <si>
+    <t>UT(0-7-54)</t>
+  </si>
+  <si>
+    <t>UT(0-3-21)</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>8/12,13,15</t>
+  </si>
+  <si>
+    <t>8/26-28/2014</t>
+  </si>
+  <si>
+    <t>UT(0-6-44)</t>
+  </si>
+  <si>
+    <t>UT(2-6-51)</t>
+  </si>
+  <si>
+    <t>10/23,24/2014</t>
+  </si>
+  <si>
+    <t>UT(1-6-34)</t>
+  </si>
+  <si>
+    <t>EMERGNCY 11/28</t>
+  </si>
+  <si>
+    <t>DOMESTIC 12/15</t>
+  </si>
+  <si>
+    <t>UT(1-2-1)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 12/17</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>UT(0-5-5)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2/11</t>
+  </si>
+  <si>
+    <t>UT(1-5-30)</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-4-16)</t>
+  </si>
+  <si>
+    <t>4/27,28/2015</t>
+  </si>
+  <si>
+    <t>UT(1-3-12)</t>
+  </si>
+  <si>
+    <t>5/19,20/2015</t>
+  </si>
+  <si>
+    <t>6/10,11/2015</t>
+  </si>
+  <si>
+    <t>UT(0-4-50)</t>
+  </si>
+  <si>
+    <t>UT(0-2-52)</t>
+  </si>
+  <si>
+    <t>UT(0-6-56)</t>
+  </si>
+  <si>
+    <t>UT(0-7-18)</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>UT(0-5-27)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 12/28</t>
+  </si>
+  <si>
+    <t>UT(0-6-12)</t>
+  </si>
+  <si>
+    <t>UT(1-2-21)</t>
+  </si>
+  <si>
+    <t>2/4,5/2016</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2/26</t>
+  </si>
+  <si>
+    <t>2/10,11,12</t>
+  </si>
+  <si>
+    <t>UT(0-7-48)</t>
+  </si>
+  <si>
+    <t>UT(1-2-43)</t>
+  </si>
+  <si>
+    <t>UT(1-6-23)</t>
+  </si>
+  <si>
+    <t>UT(0-4-15)</t>
+  </si>
+  <si>
+    <t>UT(2-3-43)</t>
+  </si>
+  <si>
+    <t>UT(1-2-31)</t>
+  </si>
+  <si>
+    <t>PARENTAL 8/12</t>
+  </si>
+  <si>
+    <t>UT(0-4-36)</t>
+  </si>
+  <si>
+    <t>9/23,26/2016</t>
+  </si>
+  <si>
+    <t>UT(0-5-4)</t>
+  </si>
+  <si>
+    <t>10/20,21/2016</t>
+  </si>
+  <si>
+    <t>UT(0-3-5)</t>
+  </si>
+  <si>
+    <t>UT(1-0-22)</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>UT(1-7-0)</t>
+  </si>
+  <si>
+    <t>UT(3-1-48)</t>
+  </si>
+  <si>
+    <t>UT(0-4-6)</t>
+  </si>
+  <si>
+    <t>UT(0-0-9)</t>
+  </si>
+  <si>
+    <t>UT(0-4-38)</t>
+  </si>
+  <si>
+    <t>4/24,25/2017</t>
+  </si>
+  <si>
+    <t>5/16,17/2017</t>
+  </si>
+  <si>
+    <t>6/15,16/2017</t>
+  </si>
+  <si>
+    <t>UT(1-0-0)</t>
+  </si>
+  <si>
+    <t>7/3,4/2016</t>
+  </si>
+  <si>
+    <t>UT(0-0-17)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 8/14</t>
+  </si>
+  <si>
+    <t>UT(0-2-10)</t>
+  </si>
+  <si>
+    <t>UT(0-1-31)</t>
+  </si>
+  <si>
+    <t>UT(0-4-31)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 12/1</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>DOMESTIC 1/29</t>
+  </si>
+  <si>
+    <t>2/12,13/2018</t>
+  </si>
+  <si>
+    <t>UT(2-1-44)</t>
+  </si>
+  <si>
+    <t>UT(0-1-11)</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>8/13,14,15</t>
+  </si>
+  <si>
+    <t>DOMESTIC 8/28</t>
+  </si>
+  <si>
+    <t>UT(2-0-52)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 9/11</t>
+  </si>
+  <si>
+    <t>UT(1-4-23)</t>
+  </si>
+  <si>
+    <t>10/9,10/2018</t>
+  </si>
+  <si>
+    <t>UT(1-0-16)</t>
+  </si>
+  <si>
+    <t>UT(0-4-10)</t>
+  </si>
+  <si>
+    <t>UT(2-0-8)</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>5/21,22/2019</t>
+  </si>
+  <si>
+    <t>DOMESTIC 5/23</t>
+  </si>
+  <si>
+    <t>DOMESTIC 5/30,31</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>6/13,14/2019</t>
+  </si>
+  <si>
+    <t>11/14,15/2019</t>
+  </si>
+  <si>
+    <t>12/18,19/2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>CL(5-0-0)</t>
+  </si>
+  <si>
+    <t>CALAMITY 1/15,17,23,24, 2/12</t>
+  </si>
+  <si>
+    <t>DOMESTIC 7/22</t>
+  </si>
+  <si>
+    <t>9/16-18/2022</t>
+  </si>
+  <si>
+    <t>9/18,21/2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>7/16-18/2021</t>
+  </si>
+  <si>
+    <t>DOMESTIC 7/1,2</t>
+  </si>
+  <si>
+    <t>DOMESTIC 11/25</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>DOMESTIC 5/27</t>
   </si>
 </sst>
 </file>
@@ -663,7 +1146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,6 +1282,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,10 +1324,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2828,7 +3317,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K265" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K391" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3206,12 +3695,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K265"/>
+  <dimension ref="A2:K391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A87" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90:C235"/>
+      <pane ySplit="3576" topLeftCell="A349" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="G357" sqref="G357:G361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3233,62 +3722,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3314,18 +3803,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3372,7 +3861,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>225.93099999999998</v>
+        <v>56.675999999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3382,7 +3871,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3408,7 +3897,7 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="20"/>
@@ -3651,7 +4140,7 @@
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="60">
+      <c r="K21" s="48">
         <v>39287</v>
       </c>
     </row>
@@ -3671,7 +4160,7 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="60" t="s">
+      <c r="K22" s="48" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3693,7 +4182,7 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="60" t="s">
+      <c r="K23" s="48" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3715,7 +4204,7 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="60"/>
+      <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
@@ -3853,7 +4342,7 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="60">
+      <c r="K30" s="48">
         <v>39409</v>
       </c>
     </row>
@@ -3902,7 +4391,7 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="20"/>
@@ -4037,7 +4526,7 @@
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="60">
+      <c r="K38" s="48">
         <v>39243</v>
       </c>
     </row>
@@ -4059,7 +4548,7 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="60"/>
+      <c r="K39" s="48"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
@@ -4432,7 +4921,7 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="47" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="20"/>
@@ -4858,7 +5347,7 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="59" t="s">
+      <c r="A76" s="47" t="s">
         <v>114</v>
       </c>
       <c r="B76" s="20"/>
@@ -5164,7 +5653,7 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="59" t="s">
+      <c r="A89" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B89" s="20"/>
@@ -5185,11 +5674,15 @@
       <c r="A90" s="40">
         <v>40544</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C90" s="13">
         <v>1.25</v>
       </c>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>0.48499999999999999</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13">
@@ -5205,11 +5698,15 @@
       <c r="A91" s="40">
         <v>40575</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>129</v>
+      </c>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
-      <c r="D91" s="39"/>
+      <c r="D91" s="39">
+        <v>0.20400000000000001</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13">
@@ -5225,11 +5722,15 @@
       <c r="A92" s="40">
         <v>40603</v>
       </c>
-      <c r="B92" s="20"/>
+      <c r="B92" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>0.17700000000000002</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13">
@@ -5245,11 +5746,15 @@
       <c r="A93" s="40">
         <v>40634</v>
       </c>
-      <c r="B93" s="20"/>
+      <c r="B93" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
-      <c r="D93" s="39"/>
+      <c r="D93" s="39">
+        <v>0.45400000000000001</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13">
@@ -5265,11 +5770,15 @@
       <c r="A94" s="40">
         <v>40664</v>
       </c>
-      <c r="B94" s="20"/>
+      <c r="B94" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="C94" s="13">
         <v>1.25</v>
       </c>
-      <c r="D94" s="39"/>
+      <c r="D94" s="39">
+        <v>0.83699999999999997</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13">
@@ -5365,11 +5874,15 @@
       <c r="A99" s="40">
         <v>40817</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="C99" s="13">
         <v>1.25</v>
       </c>
-      <c r="D99" s="39"/>
+      <c r="D99" s="39">
+        <v>1.3460000000000001</v>
+      </c>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
       <c r="G99" s="13">
@@ -5385,11 +5898,15 @@
       <c r="A100" s="40">
         <v>40848</v>
       </c>
-      <c r="B100" s="20"/>
+      <c r="B100" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C100" s="13">
         <v>1.25</v>
       </c>
-      <c r="D100" s="39"/>
+      <c r="D100" s="39">
+        <v>3</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13">
@@ -5399,42 +5916,44 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="20" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40">
-        <v>40878</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A101" s="40"/>
+      <c r="B101" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="13"/>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="20" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40">
-        <v>40909</v>
-      </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D102" s="39"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="39">
+        <v>1.6120000000000001</v>
+      </c>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
@@ -5443,13 +5962,17 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>40940</v>
-      </c>
-      <c r="B103" s="20"/>
+        <v>40878</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C103" s="13">
         <v>1.25</v>
       </c>
-      <c r="D103" s="39"/>
+      <c r="D103" s="39">
+        <v>1</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
       <c r="G103" s="13">
@@ -5459,82 +5982,82 @@
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="48">
+        <v>40906</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40">
-        <v>40969</v>
-      </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A104" s="40"/>
+      <c r="B104" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="13"/>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="48" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40">
-        <v>41000</v>
-      </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A105" s="40"/>
+      <c r="B105" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="13"/>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="48" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40">
-        <v>41030</v>
-      </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D106" s="39"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="39">
+        <v>3.1310000000000002</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
+      <c r="K106" s="48"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40">
-        <v>41061</v>
+      <c r="A107" s="47" t="s">
+        <v>134</v>
       </c>
       <c r="B107" s="20"/>
-      <c r="C107" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C107" s="13"/>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
@@ -5543,9 +6066,11 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>41091</v>
-      </c>
-      <c r="B108" s="20"/>
+        <v>40909</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C108" s="13">
         <v>1.25</v>
       </c>
@@ -5559,42 +6084,44 @@
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
+      <c r="K108" s="20" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40">
-        <v>41122</v>
-      </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A109" s="40"/>
+      <c r="B109" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="13"/>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
+      <c r="K109" s="20" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40">
-        <v>41153</v>
-      </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D110" s="39"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="39">
+        <v>2.1789999999999998</v>
+      </c>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
@@ -5603,13 +6130,17 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>41183</v>
-      </c>
-      <c r="B111" s="20"/>
+        <v>40940</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C111" s="13">
         <v>1.25</v>
       </c>
-      <c r="D111" s="39"/>
+      <c r="D111" s="39">
+        <v>1</v>
+      </c>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
       <c r="G111" s="13">
@@ -5619,37 +6150,43 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
+      <c r="K111" s="48">
+        <v>40963</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40">
-        <v>41214</v>
-      </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D112" s="39"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="39">
+        <v>1.256</v>
+      </c>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
+      <c r="K112" s="48"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>41244</v>
-      </c>
-      <c r="B113" s="20"/>
+        <v>40969</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="C113" s="13">
         <v>1.25</v>
       </c>
-      <c r="D113" s="39"/>
+      <c r="D113" s="39">
+        <v>0.33100000000000002</v>
+      </c>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13">
@@ -5663,9 +6200,11 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>41275</v>
-      </c>
-      <c r="B114" s="20"/>
+        <v>41000</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="C114" s="13">
         <v>1.25</v>
       </c>
@@ -5679,42 +6218,44 @@
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
+      <c r="K114" s="20" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40">
-        <v>41306</v>
-      </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A115" s="40"/>
+      <c r="B115" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" s="13"/>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40">
-        <v>41334</v>
-      </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D116" s="39"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39">
+        <v>0.33100000000000002</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
@@ -5723,13 +6264,17 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>41365</v>
-      </c>
-      <c r="B117" s="20"/>
+        <v>41030</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>149</v>
+      </c>
       <c r="C117" s="13">
         <v>1.25</v>
       </c>
-      <c r="D117" s="39"/>
+      <c r="D117" s="39">
+        <v>5</v>
+      </c>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
       <c r="G117" s="13">
@@ -5743,13 +6288,17 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>41395</v>
-      </c>
-      <c r="B118" s="20"/>
+        <v>41061</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="C118" s="13">
         <v>1.25</v>
       </c>
-      <c r="D118" s="39"/>
+      <c r="D118" s="39">
+        <v>4.5919999999999996</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13">
@@ -5763,13 +6312,17 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>41426</v>
-      </c>
-      <c r="B119" s="20"/>
+        <v>41091</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C119" s="13">
         <v>1.25</v>
       </c>
-      <c r="D119" s="39"/>
+      <c r="D119" s="39">
+        <v>3</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13">
@@ -5779,22 +6332,24 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
+      <c r="K119" s="20" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40">
-        <v>41456</v>
-      </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D120" s="39"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="39">
+        <v>4.6079999999999997</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G120" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
@@ -5803,13 +6358,17 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>41487</v>
-      </c>
-      <c r="B121" s="20"/>
+        <v>41122</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C121" s="13">
         <v>1.25</v>
       </c>
-      <c r="D121" s="39"/>
+      <c r="D121" s="39">
+        <v>2</v>
+      </c>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
       <c r="G121" s="13">
@@ -5819,22 +6378,24 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
+      <c r="K121" s="20" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40">
-        <v>41518</v>
-      </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D122" s="39"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="39">
+        <v>2.4830000000000001</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
@@ -5843,9 +6404,11 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>41548</v>
-      </c>
-      <c r="B123" s="20"/>
+        <v>41153</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C123" s="13">
         <v>1.25</v>
       </c>
@@ -5856,80 +6419,90 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H123" s="39"/>
+      <c r="H123" s="39">
+        <v>1</v>
+      </c>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
+      <c r="K123" s="48">
+        <v>41173</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40">
-        <v>41579</v>
-      </c>
-      <c r="B124" s="20"/>
-      <c r="C124" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D124" s="39"/>
+      <c r="A124" s="40"/>
+      <c r="B124" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="39">
+        <v>2</v>
+      </c>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
+      <c r="K124" s="48" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40">
-        <v>41609</v>
-      </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A125" s="40"/>
+      <c r="B125" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="13"/>
       <c r="D125" s="39"/>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H125" s="39"/>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="39">
+        <v>2</v>
+      </c>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
+      <c r="K125" s="48" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40">
-        <v>41640</v>
-      </c>
-      <c r="B126" s="20"/>
-      <c r="C126" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A126" s="40"/>
+      <c r="B126" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C126" s="13"/>
       <c r="D126" s="39"/>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
+      <c r="K126" s="48"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>41671</v>
-      </c>
-      <c r="B127" s="20"/>
+        <v>41183</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="C127" s="13">
         <v>1.25</v>
       </c>
-      <c r="D127" s="39"/>
+      <c r="D127" s="39">
+        <v>3.9370000000000003</v>
+      </c>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
       <c r="G127" s="13">
@@ -5943,13 +6516,17 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>41699</v>
-      </c>
-      <c r="B128" s="20"/>
+        <v>41214</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="C128" s="13">
         <v>1.25</v>
       </c>
-      <c r="D128" s="39"/>
+      <c r="D128" s="39">
+        <v>2.415</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
       <c r="G128" s="13">
@@ -5963,9 +6540,11 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>41730</v>
-      </c>
-      <c r="B129" s="20"/>
+        <v>41244</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C129" s="13">
         <v>1.25</v>
       </c>
@@ -5976,80 +6555,88 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H129" s="39"/>
+      <c r="H129" s="39">
+        <v>1</v>
+      </c>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
+      <c r="K129" s="48">
+        <v>41249</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40">
-        <v>41760</v>
-      </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130" s="13"/>
       <c r="D130" s="39"/>
       <c r="E130" s="9"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H130" s="39"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39">
+        <v>1</v>
+      </c>
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
+      <c r="K130" s="48">
+        <v>41256</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40">
-        <v>41791</v>
-      </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D131" s="39"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39">
+        <v>1.885</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="48"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40">
-        <v>41821</v>
+      <c r="A132" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="B132" s="20"/>
-      <c r="C132" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C132" s="13"/>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
+      <c r="K132" s="48"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>41852</v>
-      </c>
-      <c r="B133" s="20"/>
+        <v>41275</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>164</v>
+      </c>
       <c r="C133" s="13">
         <v>1.25</v>
       </c>
-      <c r="D133" s="39"/>
+      <c r="D133" s="39">
+        <v>1.9809999999999999</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
       <c r="G133" s="13">
@@ -6063,9 +6650,11 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>41883</v>
-      </c>
-      <c r="B134" s="20"/>
+        <v>41306</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C134" s="13">
         <v>1.25</v>
       </c>
@@ -6076,60 +6665,70 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H134" s="39"/>
+      <c r="H134" s="39">
+        <v>1</v>
+      </c>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
+      <c r="K134" s="48">
+        <v>41312</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="40">
-        <v>41913</v>
-      </c>
-      <c r="B135" s="20"/>
-      <c r="C135" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" s="13"/>
       <c r="D135" s="39"/>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
-      <c r="G135" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H135" s="39"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39">
+        <v>1</v>
+      </c>
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
+      <c r="K135" s="48">
+        <v>41316</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="40">
-        <v>41944</v>
-      </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D136" s="39"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39">
+        <v>2.3519999999999999</v>
+      </c>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H136" s="39"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
+      <c r="K136" s="48"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>41974</v>
-      </c>
-      <c r="B137" s="20"/>
+        <v>41334</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="C137" s="13">
         <v>1.25</v>
       </c>
-      <c r="D137" s="39"/>
+      <c r="D137" s="39">
+        <v>3.61</v>
+      </c>
       <c r="E137" s="9"/>
       <c r="F137" s="20"/>
       <c r="G137" s="13">
@@ -6143,13 +6742,17 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>42005</v>
-      </c>
-      <c r="B138" s="20"/>
+        <v>41365</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C138" s="13">
         <v>1.25</v>
       </c>
-      <c r="D138" s="39"/>
+      <c r="D138" s="39">
+        <v>2</v>
+      </c>
       <c r="E138" s="9"/>
       <c r="F138" s="20"/>
       <c r="G138" s="13">
@@ -6159,42 +6762,44 @@
       <c r="H138" s="39"/>
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
+      <c r="K138" s="20" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="40">
-        <v>42036</v>
-      </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A139" s="40"/>
+      <c r="B139" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" s="13"/>
       <c r="D139" s="39"/>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
-      <c r="G139" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H139" s="39"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
-      <c r="K139" s="20"/>
+      <c r="K139" s="20" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="40">
-        <v>42064</v>
-      </c>
-      <c r="B140" s="20"/>
-      <c r="C140" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D140" s="39"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39">
+        <v>3.6539999999999999</v>
+      </c>
       <c r="E140" s="9"/>
       <c r="F140" s="20"/>
-      <c r="G140" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H140" s="39"/>
       <c r="I140" s="9"/>
@@ -6203,9 +6808,11 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>42095</v>
-      </c>
-      <c r="B141" s="20"/>
+        <v>41395</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C141" s="13">
         <v>1.25</v>
       </c>
@@ -6216,100 +6823,112 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H141" s="39"/>
+      <c r="H141" s="39">
+        <v>1</v>
+      </c>
       <c r="I141" s="9"/>
       <c r="J141" s="11"/>
-      <c r="K141" s="20"/>
+      <c r="K141" s="48">
+        <v>41409</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="40">
-        <v>42125</v>
-      </c>
-      <c r="B142" s="20"/>
-      <c r="C142" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A142" s="40"/>
+      <c r="B142" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" s="13"/>
       <c r="D142" s="39"/>
       <c r="E142" s="9"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H142" s="39"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39">
+        <v>1</v>
+      </c>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="20"/>
+      <c r="K142" s="48">
+        <v>41411</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="40">
-        <v>42156</v>
-      </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A143" s="40"/>
+      <c r="B143" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="13"/>
       <c r="D143" s="39"/>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
-      <c r="G143" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H143" s="39"/>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="20"/>
+      <c r="K143" s="48" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="40">
-        <v>42186</v>
-      </c>
-      <c r="B144" s="20"/>
-      <c r="C144" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A144" s="40"/>
+      <c r="B144" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="13"/>
       <c r="D144" s="39"/>
       <c r="E144" s="9"/>
       <c r="F144" s="20"/>
-      <c r="G144" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H144" s="39"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39">
+        <v>2</v>
+      </c>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="20"/>
+      <c r="K144" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="40">
-        <v>42217</v>
-      </c>
-      <c r="B145" s="20"/>
-      <c r="C145" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D145" s="39"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39">
+        <v>3.4980000000000002</v>
+      </c>
       <c r="E145" s="9"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="20"/>
+      <c r="K145" s="48"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <v>42248</v>
-      </c>
-      <c r="B146" s="20"/>
+        <v>41426</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>173</v>
+      </c>
       <c r="C146" s="13">
         <v>1.25</v>
       </c>
-      <c r="D146" s="39"/>
+      <c r="D146" s="39">
+        <v>3.3980000000000001</v>
+      </c>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
       <c r="G146" s="13">
@@ -6323,9 +6942,11 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>42278</v>
-      </c>
-      <c r="B147" s="20"/>
+        <v>41456</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C147" s="13">
         <v>1.25</v>
       </c>
@@ -6336,36 +6957,42 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H147" s="39"/>
+      <c r="H147" s="39">
+        <v>1</v>
+      </c>
       <c r="I147" s="9"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="20"/>
+      <c r="K147" s="48">
+        <v>41467</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="40">
-        <v>42309</v>
-      </c>
-      <c r="B148" s="20"/>
-      <c r="C148" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D148" s="39"/>
+      <c r="A148" s="40"/>
+      <c r="B148" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39">
+        <v>1.7210000000000001</v>
+      </c>
       <c r="E148" s="9"/>
       <c r="F148" s="20"/>
-      <c r="G148" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H148" s="39"/>
       <c r="I148" s="9"/>
       <c r="J148" s="11"/>
-      <c r="K148" s="20"/>
+      <c r="K148" s="48"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <v>42339</v>
-      </c>
-      <c r="B149" s="20"/>
+        <v>41487</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C149" s="13">
         <v>1.25</v>
       </c>
@@ -6379,22 +7006,24 @@
       <c r="H149" s="39"/>
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="20"/>
+      <c r="K149" s="20" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="40">
-        <v>42370</v>
-      </c>
-      <c r="B150" s="20"/>
-      <c r="C150" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D150" s="39"/>
+      <c r="A150" s="40"/>
+      <c r="B150" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39">
+        <v>1.19</v>
+      </c>
       <c r="E150" s="9"/>
       <c r="F150" s="20"/>
-      <c r="G150" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H150" s="39"/>
       <c r="I150" s="9"/>
@@ -6403,13 +7032,17 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <v>42401</v>
-      </c>
-      <c r="B151" s="20"/>
+        <v>41518</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="C151" s="13">
         <v>1.25</v>
       </c>
-      <c r="D151" s="39"/>
+      <c r="D151" s="39">
+        <v>2.165</v>
+      </c>
       <c r="E151" s="9"/>
       <c r="F151" s="20"/>
       <c r="G151" s="13">
@@ -6423,13 +7056,17 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <v>42430</v>
-      </c>
-      <c r="B152" s="20"/>
+        <v>41548</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="C152" s="13">
         <v>1.25</v>
       </c>
-      <c r="D152" s="39"/>
+      <c r="D152" s="39">
+        <v>2.9689999999999999</v>
+      </c>
       <c r="E152" s="9"/>
       <c r="F152" s="20"/>
       <c r="G152" s="13">
@@ -6443,13 +7080,17 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>42461</v>
-      </c>
-      <c r="B153" s="20"/>
+        <v>41579</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C153" s="13">
         <v>1.25</v>
       </c>
-      <c r="D153" s="39"/>
+      <c r="D153" s="39">
+        <v>2</v>
+      </c>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
       <c r="G153" s="13">
@@ -6459,17 +7100,23 @@
       <c r="H153" s="39"/>
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
-      <c r="K153" s="20"/>
+      <c r="K153" s="20" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <v>42491</v>
-      </c>
-      <c r="B154" s="20"/>
+        <v>41609</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>181</v>
+      </c>
       <c r="C154" s="13">
         <v>1.25</v>
       </c>
-      <c r="D154" s="39"/>
+      <c r="D154" s="39">
+        <v>1.627</v>
+      </c>
       <c r="E154" s="9"/>
       <c r="F154" s="20"/>
       <c r="G154" s="13">
@@ -6482,19 +7129,19 @@
       <c r="K154" s="20"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="40">
-        <v>42522</v>
-      </c>
-      <c r="B155" s="20"/>
-      <c r="C155" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D155" s="39"/>
+      <c r="A155" s="40"/>
+      <c r="B155" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="39">
+        <v>1</v>
+      </c>
       <c r="E155" s="9"/>
       <c r="F155" s="20"/>
-      <c r="G155" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H155" s="39"/>
       <c r="I155" s="9"/>
@@ -6502,19 +7149,17 @@
       <c r="K155" s="20"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="40">
-        <v>42552</v>
+      <c r="A156" s="47" t="s">
+        <v>180</v>
       </c>
       <c r="B156" s="20"/>
-      <c r="C156" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C156" s="13"/>
       <c r="D156" s="39"/>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
-      <c r="G156" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H156" s="39"/>
       <c r="I156" s="9"/>
@@ -6523,13 +7168,17 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <v>42583</v>
-      </c>
-      <c r="B157" s="20"/>
+        <v>41640</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="C157" s="13">
         <v>1.25</v>
       </c>
-      <c r="D157" s="39"/>
+      <c r="D157" s="39">
+        <v>1.7170000000000001</v>
+      </c>
       <c r="E157" s="9"/>
       <c r="F157" s="20"/>
       <c r="G157" s="13">
@@ -6543,9 +7192,11 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <v>42614</v>
-      </c>
-      <c r="B158" s="20"/>
+        <v>41671</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="C158" s="13">
         <v>1.25</v>
       </c>
@@ -6556,65 +7207,73 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H158" s="39"/>
+      <c r="H158" s="39">
+        <v>2</v>
+      </c>
       <c r="I158" s="9"/>
       <c r="J158" s="11"/>
-      <c r="K158" s="20"/>
+      <c r="K158" s="20" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="40">
-        <v>42644</v>
-      </c>
-      <c r="B159" s="20"/>
-      <c r="C159" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A159" s="40"/>
+      <c r="B159" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C159" s="13"/>
       <c r="D159" s="39"/>
       <c r="E159" s="9"/>
       <c r="F159" s="20"/>
-      <c r="G159" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H159" s="39"/>
+      <c r="G159" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="39">
+        <v>1</v>
+      </c>
       <c r="I159" s="9"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="20"/>
+      <c r="K159" s="48">
+        <v>41695</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="40">
-        <v>42675</v>
-      </c>
-      <c r="B160" s="15"/>
-      <c r="C160" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D160" s="42"/>
+      <c r="A160" s="40"/>
+      <c r="B160" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H160" s="42"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H160" s="39">
+        <v>1</v>
+      </c>
       <c r="I160" s="9"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="15"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="48">
+        <v>41703</v>
+      </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" s="40">
-        <v>42705</v>
-      </c>
-      <c r="B161" s="20"/>
-      <c r="C161" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D161" s="39"/>
+      <c r="A161" s="40"/>
+      <c r="B161" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="39">
+        <v>2.0230000000000001</v>
+      </c>
       <c r="E161" s="9"/>
       <c r="F161" s="20"/>
-      <c r="G161" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G161" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H161" s="39"/>
       <c r="I161" s="9"/>
@@ -6623,13 +7282,17 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <v>42736</v>
-      </c>
-      <c r="B162" s="20"/>
+        <v>41699</v>
+      </c>
+      <c r="B162" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C162" s="13">
         <v>1.25</v>
       </c>
-      <c r="D162" s="39"/>
+      <c r="D162" s="39">
+        <v>2</v>
+      </c>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
       <c r="G162" s="13">
@@ -6639,22 +7302,24 @@
       <c r="H162" s="39"/>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="20"/>
+      <c r="K162" s="20" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="40">
-        <v>42767</v>
-      </c>
-      <c r="B163" s="20"/>
-      <c r="C163" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D163" s="39"/>
+      <c r="A163" s="40"/>
+      <c r="B163" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="39">
+        <v>2.15</v>
+      </c>
       <c r="E163" s="9"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
@@ -6663,13 +7328,17 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
-        <v>42795</v>
-      </c>
-      <c r="B164" s="20"/>
+        <v>41730</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="C164" s="13">
         <v>1.25</v>
       </c>
-      <c r="D164" s="39"/>
+      <c r="D164" s="39">
+        <v>0.86899999999999999</v>
+      </c>
       <c r="E164" s="9"/>
       <c r="F164" s="20"/>
       <c r="G164" s="13">
@@ -6683,9 +7352,11 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
-        <v>42826</v>
-      </c>
-      <c r="B165" s="20"/>
+        <v>41760</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C165" s="13">
         <v>1.25</v>
       </c>
@@ -6696,36 +7367,42 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H165" s="39"/>
+      <c r="H165" s="39">
+        <v>1</v>
+      </c>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="20"/>
+      <c r="K165" s="48">
+        <v>41788</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="40">
-        <v>42856</v>
-      </c>
-      <c r="B166" s="20"/>
-      <c r="C166" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D166" s="39"/>
+      <c r="A166" s="40"/>
+      <c r="B166" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C166" s="13"/>
+      <c r="D166" s="39">
+        <v>1.333</v>
+      </c>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
-      <c r="G166" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H166" s="39"/>
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
-      <c r="K166" s="20"/>
+      <c r="K166" s="48"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <v>42887</v>
-      </c>
-      <c r="B167" s="20"/>
+        <v>41791</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C167" s="13">
         <v>1.25</v>
       </c>
@@ -6736,36 +7413,42 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H167" s="39"/>
+      <c r="H167" s="39">
+        <v>1</v>
+      </c>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="20"/>
+      <c r="K167" s="48">
+        <v>41813</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="40">
-        <v>42917</v>
-      </c>
-      <c r="B168" s="20"/>
-      <c r="C168" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D168" s="39"/>
+      <c r="A168" s="40"/>
+      <c r="B168" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="39">
+        <v>0.98699999999999999</v>
+      </c>
       <c r="E168" s="9"/>
       <c r="F168" s="20"/>
-      <c r="G168" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G168" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H168" s="39"/>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="20"/>
+      <c r="K168" s="48"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <v>42948</v>
-      </c>
-      <c r="B169" s="20"/>
+        <v>41821</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C169" s="13">
         <v>1.25</v>
       </c>
@@ -6776,96 +7459,106 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H169" s="39"/>
+      <c r="H169" s="39">
+        <v>1</v>
+      </c>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="20"/>
+      <c r="K169" s="48">
+        <v>41837</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="40">
-        <v>42979</v>
-      </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A170" s="40"/>
+      <c r="B170" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170" s="13"/>
       <c r="D170" s="39"/>
       <c r="E170" s="9"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H170" s="39"/>
+      <c r="G170" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H170" s="39">
+        <v>1</v>
+      </c>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="20"/>
+      <c r="K170" s="48">
+        <v>41848</v>
+      </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="40">
-        <v>43009</v>
-      </c>
-      <c r="B171" s="20"/>
-      <c r="C171" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A171" s="40"/>
+      <c r="B171" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="13"/>
       <c r="D171" s="39"/>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
-      <c r="G171" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H171" s="39"/>
+      <c r="G171" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H171" s="39">
+        <v>1</v>
+      </c>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="20"/>
+      <c r="K171" s="48"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="40">
-        <v>43040</v>
-      </c>
-      <c r="B172" s="20"/>
-      <c r="C172" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A172" s="40"/>
+      <c r="B172" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" s="13"/>
       <c r="D172" s="39"/>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H172" s="39"/>
+      <c r="G172" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H172" s="39">
+        <v>1</v>
+      </c>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="20"/>
+      <c r="K172" s="48">
+        <v>41845</v>
+      </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="40">
-        <v>43070</v>
-      </c>
-      <c r="B173" s="20"/>
-      <c r="C173" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D173" s="39"/>
+      <c r="A173" s="40"/>
+      <c r="B173" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="39">
+        <v>0.41899999999999998</v>
+      </c>
       <c r="E173" s="9"/>
       <c r="F173" s="20"/>
-      <c r="G173" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G173" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H173" s="39"/>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="20"/>
+      <c r="K173" s="48"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <v>43101</v>
-      </c>
-      <c r="B174" s="20"/>
+        <v>41852</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>191</v>
+      </c>
       <c r="C174" s="13">
         <v>1.25</v>
       </c>
@@ -6876,45 +7569,51 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H174" s="39"/>
+      <c r="H174" s="39">
+        <v>3</v>
+      </c>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="20"/>
+      <c r="K174" s="20" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="40">
-        <v>43132</v>
-      </c>
-      <c r="B175" s="20"/>
-      <c r="C175" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A175" s="40"/>
+      <c r="B175" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C175" s="13"/>
       <c r="D175" s="39"/>
       <c r="E175" s="9"/>
       <c r="F175" s="20"/>
-      <c r="G175" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H175" s="39"/>
+      <c r="G175" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H175" s="39">
+        <v>3</v>
+      </c>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="20"/>
+      <c r="K175" s="20" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="40">
-        <v>43160</v>
-      </c>
-      <c r="B176" s="20"/>
-      <c r="C176" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D176" s="39"/>
+      <c r="A176" s="40"/>
+      <c r="B176" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="39">
+        <v>0.84199999999999997</v>
+      </c>
       <c r="E176" s="9"/>
       <c r="F176" s="20"/>
-      <c r="G176" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G176" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H176" s="39"/>
       <c r="I176" s="9"/>
@@ -6923,9 +7622,11 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <v>43191</v>
-      </c>
-      <c r="B177" s="20"/>
+        <v>41883</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C177" s="13">
         <v>1.25</v>
       </c>
@@ -6936,36 +7637,42 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H177" s="39"/>
+      <c r="H177" s="39">
+        <v>1</v>
+      </c>
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
-      <c r="K177" s="20"/>
+      <c r="K177" s="48">
+        <v>41887</v>
+      </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="40">
-        <v>43221</v>
-      </c>
-      <c r="B178" s="20"/>
-      <c r="C178" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D178" s="39"/>
+      <c r="A178" s="40"/>
+      <c r="B178" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="39">
+        <v>2.8559999999999999</v>
+      </c>
       <c r="E178" s="9"/>
       <c r="F178" s="20"/>
-      <c r="G178" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G178" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H178" s="39"/>
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
-      <c r="K178" s="20"/>
+      <c r="K178" s="48"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <v>43252</v>
-      </c>
-      <c r="B179" s="20"/>
+        <v>41913</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C179" s="13">
         <v>1.25</v>
       </c>
@@ -6976,76 +7683,86 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H179" s="39"/>
+      <c r="H179" s="39">
+        <v>1</v>
+      </c>
       <c r="I179" s="9"/>
       <c r="J179" s="11"/>
-      <c r="K179" s="20"/>
+      <c r="K179" s="48">
+        <v>41921</v>
+      </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="40">
-        <v>43282</v>
-      </c>
-      <c r="B180" s="20"/>
-      <c r="C180" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A180" s="40"/>
+      <c r="B180" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="13"/>
       <c r="D180" s="39"/>
       <c r="E180" s="9"/>
       <c r="F180" s="20"/>
-      <c r="G180" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H180" s="39"/>
+      <c r="G180" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H180" s="39">
+        <v>1</v>
+      </c>
       <c r="I180" s="9"/>
       <c r="J180" s="11"/>
-      <c r="K180" s="20"/>
+      <c r="K180" s="48">
+        <v>41929</v>
+      </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="40">
-        <v>43313</v>
-      </c>
-      <c r="B181" s="20"/>
-      <c r="C181" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A181" s="40"/>
+      <c r="B181" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C181" s="13"/>
       <c r="D181" s="39"/>
       <c r="E181" s="9"/>
       <c r="F181" s="20"/>
-      <c r="G181" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H181" s="39"/>
+      <c r="G181" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H181" s="39">
+        <v>2</v>
+      </c>
       <c r="I181" s="9"/>
       <c r="J181" s="11"/>
-      <c r="K181" s="20"/>
+      <c r="K181" s="48" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="40">
-        <v>43344</v>
-      </c>
-      <c r="B182" s="20"/>
-      <c r="C182" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D182" s="39"/>
+      <c r="A182" s="40"/>
+      <c r="B182" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C182" s="13"/>
+      <c r="D182" s="39">
+        <v>1.821</v>
+      </c>
       <c r="E182" s="9"/>
       <c r="F182" s="20"/>
-      <c r="G182" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G182" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H182" s="39"/>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
-      <c r="K182" s="20"/>
+      <c r="K182" s="48"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <v>43374</v>
-      </c>
-      <c r="B183" s="20"/>
+        <v>41944</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C183" s="13">
         <v>1.25</v>
       </c>
@@ -7059,42 +7776,44 @@
       <c r="H183" s="39"/>
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
-      <c r="K183" s="20"/>
+      <c r="K183" s="20" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="40">
-        <v>43405</v>
-      </c>
-      <c r="B184" s="20"/>
-      <c r="C184" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A184" s="40"/>
+      <c r="B184" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C184" s="13"/>
       <c r="D184" s="39"/>
       <c r="E184" s="9"/>
       <c r="F184" s="20"/>
-      <c r="G184" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G184" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H184" s="39"/>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="20"/>
+      <c r="K184" s="20" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185" s="40">
-        <v>43435</v>
-      </c>
-      <c r="B185" s="20"/>
-      <c r="C185" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D185" s="39"/>
+      <c r="A185" s="40"/>
+      <c r="B185" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C185" s="13"/>
+      <c r="D185" s="39">
+        <v>1.252</v>
+      </c>
       <c r="E185" s="9"/>
       <c r="F185" s="20"/>
-      <c r="G185" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G185" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H185" s="39"/>
       <c r="I185" s="9"/>
@@ -7103,9 +7822,11 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <v>43466</v>
-      </c>
-      <c r="B186" s="20"/>
+        <v>41974</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C186" s="13">
         <v>1.25</v>
       </c>
@@ -7119,22 +7840,22 @@
       <c r="H186" s="39"/>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="20"/>
+      <c r="K186" s="20" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="40">
-        <v>43497</v>
+      <c r="A187" s="47" t="s">
+        <v>202</v>
       </c>
       <c r="B187" s="20"/>
-      <c r="C187" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C187" s="13"/>
       <c r="D187" s="39"/>
       <c r="E187" s="9"/>
       <c r="F187" s="20"/>
-      <c r="G187" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G187" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H187" s="39"/>
       <c r="I187" s="9"/>
@@ -7143,13 +7864,17 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <v>43525</v>
-      </c>
-      <c r="B188" s="20"/>
+        <v>42005</v>
+      </c>
+      <c r="B188" s="20" t="s">
+        <v>203</v>
+      </c>
       <c r="C188" s="13">
         <v>1.25</v>
       </c>
-      <c r="D188" s="39"/>
+      <c r="D188" s="39">
+        <v>0.63500000000000001</v>
+      </c>
       <c r="E188" s="9"/>
       <c r="F188" s="20"/>
       <c r="G188" s="13">
@@ -7163,9 +7888,11 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <v>43556</v>
-      </c>
-      <c r="B189" s="20"/>
+        <v>42036</v>
+      </c>
+      <c r="B189" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C189" s="13">
         <v>1.25</v>
       </c>
@@ -7179,42 +7906,46 @@
       <c r="H189" s="39"/>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
-      <c r="K189" s="20"/>
+      <c r="K189" s="20" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="40">
-        <v>43586</v>
-      </c>
-      <c r="B190" s="20"/>
-      <c r="C190" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A190" s="40"/>
+      <c r="B190" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C190" s="13"/>
       <c r="D190" s="39"/>
       <c r="E190" s="9"/>
       <c r="F190" s="20"/>
-      <c r="G190" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H190" s="39"/>
+      <c r="G190" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H190" s="39">
+        <v>1</v>
+      </c>
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
-      <c r="K190" s="20"/>
+      <c r="K190" s="48">
+        <v>42045</v>
+      </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="40">
-        <v>43617</v>
-      </c>
-      <c r="B191" s="20"/>
-      <c r="C191" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D191" s="39"/>
+      <c r="A191" s="40"/>
+      <c r="B191" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C191" s="13"/>
+      <c r="D191" s="39">
+        <v>1.6870000000000001</v>
+      </c>
       <c r="E191" s="9"/>
       <c r="F191" s="20"/>
-      <c r="G191" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G191" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H191" s="39"/>
       <c r="I191" s="9"/>
@@ -7223,13 +7954,17 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
-        <v>43647</v>
-      </c>
-      <c r="B192" s="20"/>
+        <v>42064</v>
+      </c>
+      <c r="B192" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="C192" s="13">
         <v>1.25</v>
       </c>
-      <c r="D192" s="39"/>
+      <c r="D192" s="39">
+        <v>1</v>
+      </c>
       <c r="E192" s="9"/>
       <c r="F192" s="20"/>
       <c r="G192" s="13">
@@ -7239,37 +7974,43 @@
       <c r="H192" s="39"/>
       <c r="I192" s="9"/>
       <c r="J192" s="11"/>
-      <c r="K192" s="20"/>
+      <c r="K192" s="48">
+        <v>42087</v>
+      </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A193" s="40">
-        <v>43678</v>
-      </c>
-      <c r="B193" s="20"/>
-      <c r="C193" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D193" s="39"/>
+      <c r="A193" s="40"/>
+      <c r="B193" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C193" s="13"/>
+      <c r="D193" s="39">
+        <v>0.53300000000000003</v>
+      </c>
       <c r="E193" s="9"/>
       <c r="F193" s="20"/>
-      <c r="G193" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G193" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H193" s="39"/>
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
-      <c r="K193" s="20"/>
+      <c r="K193" s="48"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <v>43709</v>
-      </c>
-      <c r="B194" s="20"/>
+        <v>42095</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C194" s="13">
         <v>1.25</v>
       </c>
-      <c r="D194" s="39"/>
+      <c r="D194" s="39">
+        <v>2</v>
+      </c>
       <c r="E194" s="9"/>
       <c r="F194" s="20"/>
       <c r="G194" s="13">
@@ -7279,62 +8020,68 @@
       <c r="H194" s="39"/>
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
-      <c r="K194" s="20"/>
+      <c r="K194" s="20" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195" s="40">
-        <v>43739</v>
-      </c>
-      <c r="B195" s="20"/>
-      <c r="C195" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A195" s="40"/>
+      <c r="B195" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C195" s="13"/>
       <c r="D195" s="39"/>
       <c r="E195" s="9"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H195" s="39"/>
+      <c r="G195" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H195" s="39">
+        <v>1</v>
+      </c>
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
-      <c r="K195" s="20"/>
+      <c r="K195" s="48">
+        <v>42123</v>
+      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A196" s="40">
-        <v>43770</v>
-      </c>
-      <c r="B196" s="20"/>
-      <c r="C196" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A196" s="40"/>
+      <c r="B196" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C196" s="13"/>
       <c r="D196" s="39"/>
       <c r="E196" s="9"/>
       <c r="F196" s="20"/>
-      <c r="G196" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H196" s="39"/>
+      <c r="G196" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H196" s="39">
+        <v>1</v>
+      </c>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
-      <c r="K196" s="20"/>
+      <c r="K196" s="48">
+        <v>42098</v>
+      </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197" s="40">
-        <v>43800</v>
-      </c>
-      <c r="B197" s="20"/>
-      <c r="C197" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D197" s="39"/>
+      <c r="A197" s="40"/>
+      <c r="B197" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" s="13"/>
+      <c r="D197" s="39">
+        <v>1.4</v>
+      </c>
       <c r="E197" s="9"/>
       <c r="F197" s="20"/>
-      <c r="G197" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G197" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H197" s="39"/>
       <c r="I197" s="9"/>
@@ -7343,9 +8090,11 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B198" s="20"/>
+        <v>42125</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="C198" s="13">
         <v>1.25</v>
       </c>
@@ -7356,25 +8105,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H198" s="39"/>
+      <c r="H198" s="39">
+        <v>2</v>
+      </c>
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
-      <c r="K198" s="20"/>
+      <c r="K198" s="20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199" s="40">
-        <v>43862</v>
-      </c>
-      <c r="B199" s="20"/>
-      <c r="C199" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D199" s="39"/>
+      <c r="A199" s="40"/>
+      <c r="B199" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C199" s="13"/>
+      <c r="D199" s="39">
+        <v>0.60599999999999998</v>
+      </c>
       <c r="E199" s="9"/>
       <c r="F199" s="20"/>
-      <c r="G199" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G199" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H199" s="39"/>
       <c r="I199" s="9"/>
@@ -7383,9 +8136,11 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <v>43891</v>
-      </c>
-      <c r="B200" s="20"/>
+        <v>42156</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C200" s="13">
         <v>1.25</v>
       </c>
@@ -7396,80 +8151,92 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H200" s="39"/>
+      <c r="H200" s="39">
+        <v>1</v>
+      </c>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
-      <c r="K200" s="20"/>
+      <c r="K200" s="48">
+        <v>42159</v>
+      </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201" s="40">
-        <v>43922</v>
-      </c>
-      <c r="B201" s="20"/>
-      <c r="C201" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A201" s="40"/>
+      <c r="B201" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C201" s="13"/>
       <c r="D201" s="39"/>
       <c r="E201" s="9"/>
       <c r="F201" s="20"/>
-      <c r="G201" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H201" s="39"/>
+      <c r="G201" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H201" s="39">
+        <v>2</v>
+      </c>
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
-      <c r="K201" s="20"/>
+      <c r="K201" s="48" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202" s="40">
-        <v>43952</v>
-      </c>
-      <c r="B202" s="20"/>
-      <c r="C202" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A202" s="40"/>
+      <c r="B202" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C202" s="13"/>
       <c r="D202" s="39"/>
       <c r="E202" s="9"/>
       <c r="F202" s="20"/>
-      <c r="G202" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H202" s="39"/>
+      <c r="G202" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H202" s="39">
+        <v>1</v>
+      </c>
       <c r="I202" s="9"/>
       <c r="J202" s="11"/>
-      <c r="K202" s="20"/>
+      <c r="K202" s="48">
+        <v>42178</v>
+      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A203" s="40">
-        <v>43983</v>
-      </c>
-      <c r="B203" s="20"/>
-      <c r="C203" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D203" s="39"/>
+      <c r="A203" s="40"/>
+      <c r="B203" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C203" s="13"/>
+      <c r="D203" s="39">
+        <v>0.60399999999999998</v>
+      </c>
       <c r="E203" s="9"/>
       <c r="F203" s="20"/>
-      <c r="G203" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G203" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H203" s="39"/>
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
-      <c r="K203" s="20"/>
+      <c r="K203" s="48"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <v>44013</v>
-      </c>
-      <c r="B204" s="20"/>
+        <v>42186</v>
+      </c>
+      <c r="B204" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="C204" s="13">
         <v>1.25</v>
       </c>
-      <c r="D204" s="39"/>
+      <c r="D204" s="39">
+        <v>0.35799999999999998</v>
+      </c>
       <c r="E204" s="9"/>
       <c r="F204" s="20"/>
       <c r="G204" s="13">
@@ -7483,9 +8250,11 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <v>44044</v>
-      </c>
-      <c r="B205" s="20"/>
+        <v>42217</v>
+      </c>
+      <c r="B205" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C205" s="13">
         <v>1.25</v>
       </c>
@@ -7496,100 +8265,114 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H205" s="39"/>
+      <c r="H205" s="39">
+        <v>1</v>
+      </c>
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
-      <c r="K205" s="20"/>
+      <c r="K205" s="48">
+        <v>42228</v>
+      </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A206" s="40">
-        <v>44075</v>
-      </c>
-      <c r="B206" s="20"/>
-      <c r="C206" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A206" s="40"/>
+      <c r="B206" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" s="13"/>
       <c r="D206" s="39"/>
       <c r="E206" s="9"/>
       <c r="F206" s="20"/>
-      <c r="G206" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H206" s="39"/>
+      <c r="G206" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H206" s="39">
+        <v>1</v>
+      </c>
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="20"/>
+      <c r="K206" s="48">
+        <v>42234</v>
+      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A207" s="40">
-        <v>44105</v>
-      </c>
-      <c r="B207" s="20"/>
-      <c r="C207" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A207" s="40"/>
+      <c r="B207" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C207" s="13"/>
       <c r="D207" s="39"/>
       <c r="E207" s="9"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H207" s="39"/>
+      <c r="G207" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H207" s="39">
+        <v>1</v>
+      </c>
       <c r="I207" s="9"/>
       <c r="J207" s="11"/>
-      <c r="K207" s="20"/>
+      <c r="K207" s="48">
+        <v>42242</v>
+      </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A208" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B208" s="20"/>
-      <c r="C208" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A208" s="40"/>
+      <c r="B208" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C208" s="13"/>
       <c r="D208" s="39"/>
       <c r="E208" s="9"/>
       <c r="F208" s="20"/>
-      <c r="G208" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H208" s="39"/>
+      <c r="G208" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H208" s="39">
+        <v>1</v>
+      </c>
       <c r="I208" s="9"/>
       <c r="J208" s="11"/>
-      <c r="K208" s="20"/>
+      <c r="K208" s="48">
+        <v>42244</v>
+      </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A209" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B209" s="20"/>
-      <c r="C209" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D209" s="39"/>
+      <c r="A209" s="40"/>
+      <c r="B209" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C209" s="13"/>
+      <c r="D209" s="39">
+        <v>0.86699999999999999</v>
+      </c>
       <c r="E209" s="9"/>
       <c r="F209" s="20"/>
-      <c r="G209" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G209" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H209" s="39"/>
       <c r="I209" s="9"/>
       <c r="J209" s="11"/>
-      <c r="K209" s="20"/>
+      <c r="K209" s="48"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <v>44197</v>
-      </c>
-      <c r="B210" s="20"/>
+        <v>42248</v>
+      </c>
+      <c r="B210" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="C210" s="13">
         <v>1.25</v>
       </c>
-      <c r="D210" s="39"/>
+      <c r="D210" s="39">
+        <v>0.47499999999999998</v>
+      </c>
       <c r="E210" s="9"/>
       <c r="F210" s="20"/>
       <c r="G210" s="13">
@@ -7603,9 +8386,11 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <v>44228</v>
-      </c>
-      <c r="B211" s="20"/>
+        <v>42278</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C211" s="13">
         <v>1.25</v>
       </c>
@@ -7616,36 +8401,42 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H211" s="39"/>
+      <c r="H211" s="39">
+        <v>1</v>
+      </c>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="20"/>
+      <c r="K211" s="48">
+        <v>42296</v>
+      </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A212" s="40">
-        <v>44256</v>
-      </c>
-      <c r="B212" s="20"/>
-      <c r="C212" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D212" s="39"/>
+      <c r="A212" s="40"/>
+      <c r="B212" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C212" s="13"/>
+      <c r="D212" s="39">
+        <v>0.91200000000000003</v>
+      </c>
       <c r="E212" s="9"/>
       <c r="F212" s="20"/>
-      <c r="G212" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G212" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H212" s="39"/>
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
-      <c r="K212" s="20"/>
+      <c r="K212" s="48"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
-        <v>44287</v>
-      </c>
-      <c r="B213" s="20"/>
+        <v>42309</v>
+      </c>
+      <c r="B213" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C213" s="13">
         <v>1.25</v>
       </c>
@@ -7659,22 +8450,24 @@
       <c r="H213" s="39"/>
       <c r="I213" s="9"/>
       <c r="J213" s="11"/>
-      <c r="K213" s="20"/>
+      <c r="K213" s="20" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A214" s="40">
-        <v>44317</v>
-      </c>
-      <c r="B214" s="20"/>
-      <c r="C214" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D214" s="39"/>
+      <c r="A214" s="40"/>
+      <c r="B214" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C214" s="13"/>
+      <c r="D214" s="39">
+        <v>0.68100000000000005</v>
+      </c>
       <c r="E214" s="9"/>
       <c r="F214" s="20"/>
-      <c r="G214" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G214" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H214" s="39"/>
       <c r="I214" s="9"/>
@@ -7683,9 +8476,11 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
-        <v>44348</v>
-      </c>
-      <c r="B215" s="20"/>
+        <v>42339</v>
+      </c>
+      <c r="B215" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C215" s="13">
         <v>1.25</v>
       </c>
@@ -7699,62 +8494,64 @@
       <c r="H215" s="39"/>
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
-      <c r="K215" s="20"/>
+      <c r="K215" s="20" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A216" s="40">
-        <v>44378</v>
-      </c>
-      <c r="B216" s="20"/>
-      <c r="C216" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A216" s="40"/>
+      <c r="B216" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C216" s="13"/>
       <c r="D216" s="39"/>
       <c r="E216" s="9"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H216" s="39"/>
+      <c r="G216" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H216" s="39">
+        <v>1</v>
+      </c>
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
-      <c r="K216" s="20"/>
+      <c r="K216" s="48">
+        <v>42354</v>
+      </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A217" s="40">
-        <v>44409</v>
-      </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D217" s="39"/>
+      <c r="A217" s="40"/>
+      <c r="B217" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="13"/>
+      <c r="D217" s="39">
+        <v>0.77500000000000002</v>
+      </c>
       <c r="E217" s="9"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G217" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H217" s="39"/>
       <c r="I217" s="9"/>
       <c r="J217" s="11"/>
-      <c r="K217" s="20"/>
+      <c r="K217" s="48"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="40">
-        <v>44440</v>
+      <c r="A218" s="47" t="s">
+        <v>216</v>
       </c>
       <c r="B218" s="20"/>
-      <c r="C218" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C218" s="13"/>
       <c r="D218" s="39"/>
       <c r="E218" s="9"/>
       <c r="F218" s="20"/>
-      <c r="G218" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G218" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H218" s="39"/>
       <c r="I218" s="9"/>
@@ -7763,9 +8560,11 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
-        <v>44470</v>
-      </c>
-      <c r="B219" s="20"/>
+        <v>42370</v>
+      </c>
+      <c r="B219" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C219" s="13">
         <v>1.25</v>
       </c>
@@ -7782,19 +8581,19 @@
       <c r="K219" s="20"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A220" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B220" s="20"/>
-      <c r="C220" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D220" s="39"/>
+      <c r="A220" s="40"/>
+      <c r="B220" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C220" s="13"/>
+      <c r="D220" s="39">
+        <v>1.294</v>
+      </c>
       <c r="E220" s="9"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G220" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H220" s="39"/>
       <c r="I220" s="9"/>
@@ -7803,9 +8602,11 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B221" s="20"/>
+        <v>42401</v>
+      </c>
+      <c r="B221" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="C221" s="13">
         <v>1.25</v>
       </c>
@@ -7816,65 +8617,71 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H221" s="39"/>
+      <c r="H221" s="39">
+        <v>2</v>
+      </c>
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
-      <c r="K221" s="20"/>
+      <c r="K221" s="20" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A222" s="40">
-        <v>44562</v>
-      </c>
-      <c r="B222" s="20"/>
-      <c r="C222" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A222" s="40"/>
+      <c r="B222" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222" s="13"/>
       <c r="D222" s="39"/>
       <c r="E222" s="9"/>
       <c r="F222" s="20"/>
-      <c r="G222" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G222" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H222" s="39"/>
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
-      <c r="K222" s="20"/>
+      <c r="K222" s="20" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A223" s="40">
-        <v>44593</v>
-      </c>
-      <c r="B223" s="20"/>
-      <c r="C223" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A223" s="40"/>
+      <c r="B223" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C223" s="13"/>
       <c r="D223" s="39"/>
       <c r="E223" s="9"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H223" s="39"/>
+      <c r="G223" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H223" s="39">
+        <v>3</v>
+      </c>
       <c r="I223" s="9"/>
       <c r="J223" s="11"/>
-      <c r="K223" s="20"/>
+      <c r="K223" s="20" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A224" s="40">
-        <v>44621</v>
-      </c>
-      <c r="B224" s="20"/>
-      <c r="C224" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D224" s="39"/>
+      <c r="A224" s="40"/>
+      <c r="B224" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C224" s="13"/>
+      <c r="D224" s="39">
+        <v>0.97499999999999998</v>
+      </c>
       <c r="E224" s="9"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G224" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H224" s="39"/>
       <c r="I224" s="9"/>
@@ -7883,13 +8690,17 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B225" s="20"/>
+        <v>42430</v>
+      </c>
+      <c r="B225" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="C225" s="13">
         <v>1.25</v>
       </c>
-      <c r="D225" s="39"/>
+      <c r="D225" s="39">
+        <v>1.3399999999999999</v>
+      </c>
       <c r="E225" s="9"/>
       <c r="F225" s="20"/>
       <c r="G225" s="13">
@@ -7903,13 +8714,17 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B226" s="20"/>
+        <v>42461</v>
+      </c>
+      <c r="B226" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="C226" s="13">
         <v>1.25</v>
       </c>
-      <c r="D226" s="39"/>
+      <c r="D226" s="39">
+        <v>1.798</v>
+      </c>
       <c r="E226" s="9"/>
       <c r="F226" s="20"/>
       <c r="G226" s="13">
@@ -7923,13 +8738,17 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B227" s="20"/>
+        <v>42491</v>
+      </c>
+      <c r="B227" s="20" t="s">
+        <v>227</v>
+      </c>
       <c r="C227" s="13">
         <v>1.25</v>
       </c>
-      <c r="D227" s="39"/>
+      <c r="D227" s="39">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="E227" s="9"/>
       <c r="F227" s="20"/>
       <c r="G227" s="13">
@@ -7943,13 +8762,17 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B228" s="20"/>
+        <v>42522</v>
+      </c>
+      <c r="B228" s="20" t="s">
+        <v>228</v>
+      </c>
       <c r="C228" s="13">
         <v>1.25</v>
       </c>
-      <c r="D228" s="39"/>
+      <c r="D228" s="39">
+        <v>2.4649999999999999</v>
+      </c>
       <c r="E228" s="9"/>
       <c r="F228" s="20"/>
       <c r="G228" s="13">
@@ -7963,13 +8786,17 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B229" s="20"/>
+        <v>42552</v>
+      </c>
+      <c r="B229" s="20" t="s">
+        <v>229</v>
+      </c>
       <c r="C229" s="13">
         <v>1.25</v>
       </c>
-      <c r="D229" s="39"/>
+      <c r="D229" s="39">
+        <v>1.3149999999999999</v>
+      </c>
       <c r="E229" s="9"/>
       <c r="F229" s="20"/>
       <c r="G229" s="13">
@@ -7983,9 +8810,11 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B230" s="20"/>
+        <v>42583</v>
+      </c>
+      <c r="B230" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C230" s="13">
         <v>1.25</v>
       </c>
@@ -7999,42 +8828,46 @@
       <c r="H230" s="39"/>
       <c r="I230" s="9"/>
       <c r="J230" s="11"/>
-      <c r="K230" s="20"/>
+      <c r="K230" s="20" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A231" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B231" s="20"/>
-      <c r="C231" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A231" s="40"/>
+      <c r="B231" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C231" s="13"/>
       <c r="D231" s="39"/>
       <c r="E231" s="9"/>
       <c r="F231" s="20"/>
-      <c r="G231" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H231" s="39"/>
+      <c r="G231" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H231" s="39">
+        <v>1</v>
+      </c>
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
-      <c r="K231" s="20"/>
+      <c r="K231" s="48">
+        <v>42601</v>
+      </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A232" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B232" s="20"/>
-      <c r="C232" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D232" s="39"/>
+      <c r="A232" s="40"/>
+      <c r="B232" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C232" s="13"/>
+      <c r="D232" s="39">
+        <v>0.57499999999999996</v>
+      </c>
       <c r="E232" s="9"/>
       <c r="F232" s="20"/>
-      <c r="G232" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G232" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H232" s="39"/>
       <c r="I232" s="9"/>
@@ -8043,13 +8876,17 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B233" s="20"/>
+        <v>42614</v>
+      </c>
+      <c r="B233" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="C233" s="13">
         <v>1.25</v>
       </c>
-      <c r="D233" s="39"/>
+      <c r="D233" s="39">
+        <v>2</v>
+      </c>
       <c r="E233" s="9"/>
       <c r="F233" s="20"/>
       <c r="G233" s="13">
@@ -8059,185 +8896,245 @@
       <c r="H233" s="39"/>
       <c r="I233" s="9"/>
       <c r="J233" s="11"/>
-      <c r="K233" s="20"/>
+      <c r="K233" s="20" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A234" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B234" s="20"/>
+      <c r="A234" s="40"/>
+      <c r="B234" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C234" s="13"/>
       <c r="D234" s="39"/>
-      <c r="E234" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>225.93099999999998</v>
-      </c>
+      <c r="E234" s="9"/>
       <c r="F234" s="20"/>
       <c r="G234" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H234" s="39"/>
-      <c r="I234" s="9">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>282</v>
-      </c>
+      <c r="H234" s="39">
+        <v>1</v>
+      </c>
+      <c r="I234" s="9"/>
       <c r="J234" s="11"/>
-      <c r="K234" s="20"/>
+      <c r="K234" s="48">
+        <v>42648</v>
+      </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A235" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B235" s="20"/>
-      <c r="C235" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D235" s="39"/>
+      <c r="A235" s="40"/>
+      <c r="B235" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C235" s="13"/>
+      <c r="D235" s="39">
+        <v>0.63300000000000001</v>
+      </c>
       <c r="E235" s="9"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G235" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H235" s="39"/>
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
-      <c r="K235" s="20"/>
+      <c r="K235" s="48"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A236" s="40"/>
-      <c r="B236" s="20"/>
-      <c r="C236" s="13"/>
+      <c r="A236" s="40">
+        <v>42644</v>
+      </c>
+      <c r="B236" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C236" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D236" s="39"/>
       <c r="E236" s="9"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H236" s="39"/>
+      <c r="G236" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H236" s="39">
+        <v>1</v>
+      </c>
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
-      <c r="K236" s="20"/>
+      <c r="K236" s="48">
+        <v>42661</v>
+      </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="C237" s="13"/>
-      <c r="D237" s="39"/>
+      <c r="D237" s="42"/>
       <c r="E237" s="9"/>
-      <c r="F237" s="20"/>
-      <c r="G237" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H237" s="39"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H237" s="42">
+        <v>1</v>
+      </c>
       <c r="I237" s="9"/>
-      <c r="J237" s="11"/>
-      <c r="K237" s="20"/>
+      <c r="J237" s="12"/>
+      <c r="K237" s="61">
+        <v>42650</v>
+      </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="15" t="s">
+        <v>157</v>
+      </c>
       <c r="C238" s="13"/>
-      <c r="D238" s="39"/>
+      <c r="D238" s="42"/>
       <c r="E238" s="9"/>
-      <c r="F238" s="20"/>
-      <c r="G238" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H238" s="39"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H238" s="42">
+        <v>2</v>
+      </c>
       <c r="I238" s="9"/>
-      <c r="J238" s="11"/>
-      <c r="K238" s="20"/>
+      <c r="J238" s="12"/>
+      <c r="K238" s="61" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="C239" s="13"/>
-      <c r="D239" s="39"/>
+      <c r="D239" s="42"/>
       <c r="E239" s="9"/>
-      <c r="F239" s="20"/>
-      <c r="G239" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H239" s="39"/>
+      <c r="F239" s="15"/>
+      <c r="G239" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H239" s="42">
+        <v>1</v>
+      </c>
       <c r="I239" s="9"/>
-      <c r="J239" s="11"/>
-      <c r="K239" s="20"/>
+      <c r="J239" s="12"/>
+      <c r="K239" s="61">
+        <v>42646</v>
+      </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="C240" s="13"/>
-      <c r="D240" s="39"/>
+      <c r="D240" s="42">
+        <v>0.61499999999999999</v>
+      </c>
       <c r="E240" s="9"/>
-      <c r="F240" s="20"/>
-      <c r="G240" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H240" s="39"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H240" s="42"/>
       <c r="I240" s="9"/>
-      <c r="J240" s="11"/>
-      <c r="K240" s="20"/>
+      <c r="J240" s="12"/>
+      <c r="K240" s="61"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241" s="40"/>
-      <c r="B241" s="20"/>
-      <c r="C241" s="13"/>
-      <c r="D241" s="39"/>
+      <c r="A241" s="40">
+        <v>42675</v>
+      </c>
+      <c r="B241" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C241" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D241" s="42"/>
       <c r="E241" s="9"/>
-      <c r="F241" s="20"/>
-      <c r="G241" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H241" s="39"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H241" s="42">
+        <v>1</v>
+      </c>
       <c r="I241" s="9"/>
-      <c r="J241" s="11"/>
-      <c r="K241" s="20"/>
+      <c r="J241" s="12"/>
+      <c r="K241" s="61">
+        <v>42702</v>
+      </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
-      <c r="B242" s="20"/>
+      <c r="B242" s="15" t="s">
+        <v>235</v>
+      </c>
       <c r="C242" s="13"/>
-      <c r="D242" s="39"/>
+      <c r="D242" s="42">
+        <v>0.38500000000000001</v>
+      </c>
       <c r="E242" s="9"/>
-      <c r="F242" s="20"/>
-      <c r="G242" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H242" s="39"/>
+      <c r="F242" s="15"/>
+      <c r="G242" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H242" s="42"/>
       <c r="I242" s="9"/>
-      <c r="J242" s="11"/>
-      <c r="K242" s="20"/>
+      <c r="J242" s="12"/>
+      <c r="K242" s="61"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A243" s="40"/>
-      <c r="B243" s="20"/>
-      <c r="C243" s="13"/>
+      <c r="A243" s="40">
+        <v>42705</v>
+      </c>
+      <c r="B243" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C243" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D243" s="39"/>
       <c r="E243" s="9"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H243" s="39"/>
+      <c r="G243" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H243" s="39">
+        <v>1</v>
+      </c>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="20"/>
+      <c r="K243" s="48">
+        <v>42719</v>
+      </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
-      <c r="B244" s="20"/>
+      <c r="B244" s="20" t="s">
+        <v>236</v>
+      </c>
       <c r="C244" s="13"/>
-      <c r="D244" s="39"/>
+      <c r="D244" s="39">
+        <v>1.046</v>
+      </c>
       <c r="E244" s="9"/>
       <c r="F244" s="20"/>
       <c r="G244" s="13" t="str">
@@ -8247,10 +9144,12 @@
       <c r="H244" s="39"/>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
-      <c r="K244" s="20"/>
+      <c r="K244" s="48"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A245" s="40"/>
+      <c r="A245" s="47" t="s">
+        <v>237</v>
+      </c>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
       <c r="D245" s="39"/>
@@ -8263,18 +9162,26 @@
       <c r="H245" s="39"/>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="20"/>
+      <c r="K245" s="48"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A246" s="40"/>
-      <c r="B246" s="20"/>
-      <c r="C246" s="13"/>
-      <c r="D246" s="39"/>
+      <c r="A246" s="40">
+        <v>42736</v>
+      </c>
+      <c r="B246" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C246" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D246" s="39">
+        <v>1.875</v>
+      </c>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G246" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H246" s="39"/>
       <c r="I246" s="9"/>
@@ -8282,15 +9189,23 @@
       <c r="K246" s="20"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A247" s="40"/>
-      <c r="B247" s="20"/>
-      <c r="C247" s="13"/>
-      <c r="D247" s="39"/>
+      <c r="A247" s="40">
+        <v>42767</v>
+      </c>
+      <c r="B247" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C247" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D247" s="39">
+        <v>3.2250000000000001</v>
+      </c>
       <c r="E247" s="9"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G247" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H247" s="39"/>
       <c r="I247" s="9"/>
@@ -8298,15 +9213,23 @@
       <c r="K247" s="20"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A248" s="40"/>
-      <c r="B248" s="20"/>
-      <c r="C248" s="13"/>
-      <c r="D248" s="39"/>
+      <c r="A248" s="40">
+        <v>42795</v>
+      </c>
+      <c r="B248" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C248" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D248" s="39">
+        <v>0.51200000000000001</v>
+      </c>
       <c r="E248" s="9"/>
       <c r="F248" s="20"/>
-      <c r="G248" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G248" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H248" s="39"/>
       <c r="I248" s="9"/>
@@ -8314,26 +9237,40 @@
       <c r="K248" s="20"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A249" s="40"/>
-      <c r="B249" s="20"/>
-      <c r="C249" s="13"/>
-      <c r="D249" s="39"/>
+      <c r="A249" s="40">
+        <v>42826</v>
+      </c>
+      <c r="B249" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C249" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D249" s="39">
+        <v>2</v>
+      </c>
       <c r="E249" s="9"/>
       <c r="F249" s="20"/>
-      <c r="G249" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G249" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H249" s="39"/>
       <c r="I249" s="9"/>
       <c r="J249" s="11"/>
-      <c r="K249" s="20"/>
+      <c r="K249" s="20" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
-      <c r="B250" s="20"/>
+      <c r="B250" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="C250" s="13"/>
-      <c r="D250" s="39"/>
+      <c r="D250" s="39">
+        <v>2</v>
+      </c>
       <c r="E250" s="9"/>
       <c r="F250" s="20"/>
       <c r="G250" s="13" t="str">
@@ -8343,11 +9280,15 @@
       <c r="H250" s="39"/>
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
-      <c r="K250" s="20"/>
+      <c r="K250" s="20" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
-      <c r="B251" s="20"/>
+      <c r="B251" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C251" s="13"/>
       <c r="D251" s="39"/>
       <c r="E251" s="9"/>
@@ -8356,14 +9297,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H251" s="39"/>
+      <c r="H251" s="39">
+        <v>1</v>
+      </c>
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
-      <c r="K251" s="20"/>
+      <c r="K251" s="48">
+        <v>42888</v>
+      </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
-      <c r="B252" s="20"/>
+      <c r="B252" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C252" s="13"/>
       <c r="D252" s="39"/>
       <c r="E252" s="9"/>
@@ -8372,16 +9319,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H252" s="39"/>
+      <c r="H252" s="39">
+        <v>1</v>
+      </c>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
-      <c r="K252" s="20"/>
+      <c r="K252" s="48">
+        <v>42864</v>
+      </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
-      <c r="B253" s="20"/>
+      <c r="B253" s="20" t="s">
+        <v>241</v>
+      </c>
       <c r="C253" s="13"/>
-      <c r="D253" s="39"/>
+      <c r="D253" s="39">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E253" s="9"/>
       <c r="F253" s="20"/>
       <c r="G253" s="13" t="str">
@@ -8391,18 +9346,26 @@
       <c r="H253" s="39"/>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="20"/>
+      <c r="K253" s="48"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A254" s="40"/>
-      <c r="B254" s="20"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="39"/>
+      <c r="A254" s="40">
+        <v>42856</v>
+      </c>
+      <c r="B254" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C254" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D254" s="39">
+        <v>0.57899999999999996</v>
+      </c>
       <c r="E254" s="9"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G254" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H254" s="39"/>
       <c r="I254" s="9"/>
@@ -8410,26 +9373,40 @@
       <c r="K254" s="20"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A255" s="40"/>
-      <c r="B255" s="20"/>
-      <c r="C255" s="13"/>
+      <c r="A255" s="40">
+        <v>42887</v>
+      </c>
+      <c r="B255" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C255" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D255" s="39"/>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H255" s="39"/>
+      <c r="G255" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H255" s="39">
+        <v>2</v>
+      </c>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="20"/>
+      <c r="K255" s="20" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
-      <c r="B256" s="20"/>
+      <c r="B256" s="20" t="s">
+        <v>246</v>
+      </c>
       <c r="C256" s="13"/>
-      <c r="D256" s="39"/>
+      <c r="D256" s="39">
+        <v>1</v>
+      </c>
       <c r="E256" s="9"/>
       <c r="F256" s="20"/>
       <c r="G256" s="13" t="str">
@@ -8442,26 +9419,40 @@
       <c r="K256" s="20"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A257" s="40"/>
-      <c r="B257" s="20"/>
-      <c r="C257" s="13"/>
+      <c r="A257" s="40">
+        <v>42917</v>
+      </c>
+      <c r="B257" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C257" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D257" s="39"/>
       <c r="E257" s="9"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H257" s="39"/>
+      <c r="G257" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H257" s="39">
+        <v>2</v>
+      </c>
       <c r="I257" s="9"/>
       <c r="J257" s="11"/>
-      <c r="K257" s="20"/>
+      <c r="K257" s="20" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
-      <c r="B258" s="20"/>
+      <c r="B258" s="20" t="s">
+        <v>248</v>
+      </c>
       <c r="C258" s="13"/>
-      <c r="D258" s="39"/>
+      <c r="D258" s="39">
+        <v>3.5000000000000017E-2</v>
+      </c>
       <c r="E258" s="9"/>
       <c r="F258" s="20"/>
       <c r="G258" s="13" t="str">
@@ -8474,26 +9465,38 @@
       <c r="K258" s="20"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A259" s="40"/>
-      <c r="B259" s="20"/>
-      <c r="C259" s="13"/>
+      <c r="A259" s="40">
+        <v>42948</v>
+      </c>
+      <c r="B259" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C259" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D259" s="39"/>
       <c r="E259" s="9"/>
       <c r="F259" s="20"/>
-      <c r="G259" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G259" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H259" s="39"/>
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
-      <c r="K259" s="20"/>
+      <c r="K259" s="20" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
-      <c r="B260" s="20"/>
+      <c r="B260" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="C260" s="13"/>
-      <c r="D260" s="39"/>
+      <c r="D260" s="39">
+        <v>0.27100000000000002</v>
+      </c>
       <c r="E260" s="9"/>
       <c r="F260" s="20"/>
       <c r="G260" s="13" t="str">
@@ -8506,15 +9509,23 @@
       <c r="K260" s="20"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A261" s="40"/>
-      <c r="B261" s="20"/>
-      <c r="C261" s="13"/>
-      <c r="D261" s="39"/>
+      <c r="A261" s="40">
+        <v>42979</v>
+      </c>
+      <c r="B261" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C261" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D261" s="39">
+        <v>0.19</v>
+      </c>
       <c r="E261" s="9"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G261" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H261" s="39"/>
       <c r="I261" s="9"/>
@@ -8523,7 +9534,9 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
-      <c r="B262" s="20"/>
+      <c r="B262" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39"/>
       <c r="E262" s="9"/>
@@ -8532,21 +9545,33 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H262" s="39"/>
+      <c r="H262" s="39">
+        <v>1</v>
+      </c>
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
-      <c r="K262" s="20"/>
+      <c r="K262" s="48">
+        <v>42633</v>
+      </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A263" s="40"/>
-      <c r="B263" s="20"/>
-      <c r="C263" s="13"/>
-      <c r="D263" s="39"/>
+      <c r="A263" s="40">
+        <v>43009</v>
+      </c>
+      <c r="B263" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C263" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D263" s="39">
+        <v>0.56499999999999995</v>
+      </c>
       <c r="E263" s="9"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G263" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H263" s="39"/>
       <c r="I263" s="9"/>
@@ -8555,7 +9580,9 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
-      <c r="B264" s="20"/>
+      <c r="B264" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C264" s="13"/>
       <c r="D264" s="39"/>
       <c r="E264" s="9"/>
@@ -8564,26 +9591,2610 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H264" s="39"/>
+      <c r="H264" s="39">
+        <v>1</v>
+      </c>
       <c r="I264" s="9"/>
       <c r="J264" s="11"/>
-      <c r="K264" s="20"/>
+      <c r="K264" s="48">
+        <v>42668</v>
+      </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A265" s="40"/>
+      <c r="A265" s="40">
+        <v>43040</v>
+      </c>
       <c r="B265" s="20"/>
-      <c r="C265" s="13"/>
+      <c r="C265" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D265" s="39"/>
       <c r="E265" s="9"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G265" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H265" s="39"/>
       <c r="I265" s="9"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" s="40">
+        <v>43070</v>
+      </c>
+      <c r="B266" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C266" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D266" s="39">
+        <v>1</v>
+      </c>
+      <c r="E266" s="9"/>
+      <c r="F266" s="20"/>
+      <c r="G266" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H266" s="39"/>
+      <c r="I266" s="9"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="48">
+        <v>42708</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" s="40"/>
+      <c r="B267" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C267" s="13"/>
+      <c r="D267" s="39"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H267" s="39"/>
+      <c r="I267" s="9"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="B268" s="20"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="39"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H268" s="39"/>
+      <c r="I268" s="9"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="48"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" s="40">
+        <v>43101</v>
+      </c>
+      <c r="B269" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C269" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D269" s="39"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H269" s="39">
+        <v>1</v>
+      </c>
+      <c r="I269" s="9"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="48">
+        <v>43119</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" s="40"/>
+      <c r="B270" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C270" s="13"/>
+      <c r="D270" s="39"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H270" s="39"/>
+      <c r="I270" s="9"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" s="40">
+        <v>43132</v>
+      </c>
+      <c r="B271" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C271" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D271" s="39">
+        <v>2</v>
+      </c>
+      <c r="E271" s="9"/>
+      <c r="F271" s="20"/>
+      <c r="G271" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H271" s="39"/>
+      <c r="I271" s="9"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" s="40"/>
+      <c r="B272" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C272" s="13"/>
+      <c r="D272" s="39"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="20"/>
+      <c r="G272" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H272" s="39">
+        <v>1</v>
+      </c>
+      <c r="I272" s="9"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="48">
+        <v>43145</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" s="40"/>
+      <c r="B273" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C273" s="13"/>
+      <c r="D273" s="39"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="20"/>
+      <c r="G273" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H273" s="39">
+        <v>1</v>
+      </c>
+      <c r="I273" s="9"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="48">
+        <v>43139</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" s="40"/>
+      <c r="B274" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C274" s="13"/>
+      <c r="D274" s="39"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H274" s="39">
+        <v>1</v>
+      </c>
+      <c r="I274" s="9"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="48">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" s="40">
+        <v>43160</v>
+      </c>
+      <c r="B275" s="20"/>
+      <c r="C275" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D275" s="39"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H275" s="39"/>
+      <c r="I275" s="9"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="20"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" s="40">
+        <v>43191</v>
+      </c>
+      <c r="B276" s="20"/>
+      <c r="C276" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D276" s="39"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="20"/>
+      <c r="G276" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H276" s="39"/>
+      <c r="I276" s="9"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="20"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="40">
+        <v>43221</v>
+      </c>
+      <c r="B277" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C277" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D277" s="39">
+        <v>1.19</v>
+      </c>
+      <c r="E277" s="9"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H277" s="39"/>
+      <c r="I277" s="9"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="20"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" s="40">
+        <v>43252</v>
+      </c>
+      <c r="B278" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C278" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D278" s="39"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H278" s="39">
+        <v>1</v>
+      </c>
+      <c r="I278" s="9"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="48">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" s="40"/>
+      <c r="B279" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C279" s="13"/>
+      <c r="D279" s="39">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="E279" s="9"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H279" s="39"/>
+      <c r="I279" s="9"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="48"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="40">
+        <v>43282</v>
+      </c>
+      <c r="B280" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C280" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D280" s="39">
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="E280" s="9"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H280" s="39"/>
+      <c r="I280" s="9"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="20"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A281" s="40">
+        <v>43313</v>
+      </c>
+      <c r="B281" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C281" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D281" s="39">
+        <v>3</v>
+      </c>
+      <c r="E281" s="9"/>
+      <c r="F281" s="20"/>
+      <c r="G281" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H281" s="39"/>
+      <c r="I281" s="9"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" s="40"/>
+      <c r="B282" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C282" s="13"/>
+      <c r="D282" s="39"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="20"/>
+      <c r="G282" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H282" s="39"/>
+      <c r="I282" s="9"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" s="40"/>
+      <c r="B283" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C283" s="13"/>
+      <c r="D283" s="39">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="E283" s="9"/>
+      <c r="F283" s="20"/>
+      <c r="G283" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H283" s="39"/>
+      <c r="I283" s="9"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="20"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="40">
+        <v>43344</v>
+      </c>
+      <c r="B284" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C284" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D284" s="39"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H284" s="39"/>
+      <c r="I284" s="9"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="40"/>
+      <c r="B285" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C285" s="13"/>
+      <c r="D285" s="39"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H285" s="39">
+        <v>1</v>
+      </c>
+      <c r="I285" s="9"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="48">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="40"/>
+      <c r="B286" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C286" s="13"/>
+      <c r="D286" s="39"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H286" s="39">
+        <v>1</v>
+      </c>
+      <c r="I286" s="9"/>
+      <c r="J286" s="11"/>
+      <c r="K286" s="48">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="40"/>
+      <c r="B287" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C287" s="13"/>
+      <c r="D287" s="39">
+        <v>1.548</v>
+      </c>
+      <c r="E287" s="9"/>
+      <c r="F287" s="20"/>
+      <c r="G287" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H287" s="39"/>
+      <c r="I287" s="9"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="20"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="40">
+        <v>43374</v>
+      </c>
+      <c r="B288" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C288" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D288" s="39"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="20"/>
+      <c r="G288" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H288" s="39">
+        <v>2</v>
+      </c>
+      <c r="I288" s="9"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="40"/>
+      <c r="B289" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C289" s="13"/>
+      <c r="D289" s="39">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="E289" s="9"/>
+      <c r="F289" s="20"/>
+      <c r="G289" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H289" s="39"/>
+      <c r="I289" s="9"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="20"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="40">
+        <v>43405</v>
+      </c>
+      <c r="B290" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C290" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D290" s="39"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H290" s="39">
+        <v>1</v>
+      </c>
+      <c r="I290" s="9"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="48">
+        <v>43410</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="40"/>
+      <c r="B291" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C291" s="13"/>
+      <c r="D291" s="39">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E291" s="9"/>
+      <c r="F291" s="20"/>
+      <c r="G291" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H291" s="39"/>
+      <c r="I291" s="9"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="48"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="40">
+        <v>43435</v>
+      </c>
+      <c r="B292" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C292" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D292" s="39">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="E292" s="9"/>
+      <c r="F292" s="20"/>
+      <c r="G292" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H292" s="39"/>
+      <c r="I292" s="9"/>
+      <c r="J292" s="11"/>
+      <c r="K292" s="20"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B293" s="20"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="39"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="20"/>
+      <c r="G293" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H293" s="39"/>
+      <c r="I293" s="9"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="20"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294" s="40">
+        <v>43466</v>
+      </c>
+      <c r="B294" s="20"/>
+      <c r="C294" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D294" s="39"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="20"/>
+      <c r="G294" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H294" s="39"/>
+      <c r="I294" s="9"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="20"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="40">
+        <v>43497</v>
+      </c>
+      <c r="B295" s="20"/>
+      <c r="C295" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D295" s="39"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H295" s="39"/>
+      <c r="I295" s="9"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="20"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="40">
+        <v>43525</v>
+      </c>
+      <c r="B296" s="20"/>
+      <c r="C296" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D296" s="39"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="20"/>
+      <c r="G296" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H296" s="39"/>
+      <c r="I296" s="9"/>
+      <c r="J296" s="11"/>
+      <c r="K296" s="20"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="40">
+        <v>43556</v>
+      </c>
+      <c r="B297" s="20"/>
+      <c r="C297" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D297" s="39"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H297" s="39"/>
+      <c r="I297" s="9"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="20"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="40">
+        <v>43586</v>
+      </c>
+      <c r="B298" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C298" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D298" s="39">
+        <v>2</v>
+      </c>
+      <c r="E298" s="9"/>
+      <c r="F298" s="20"/>
+      <c r="G298" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H298" s="39"/>
+      <c r="I298" s="9"/>
+      <c r="J298" s="11"/>
+      <c r="K298" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="40"/>
+      <c r="B299" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C299" s="13"/>
+      <c r="D299" s="39"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="20"/>
+      <c r="G299" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H299" s="39"/>
+      <c r="I299" s="9"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="62" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" s="40"/>
+      <c r="B300" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C300" s="13"/>
+      <c r="D300" s="39"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="20"/>
+      <c r="G300" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H300" s="39"/>
+      <c r="I300" s="9"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="40">
+        <v>43617</v>
+      </c>
+      <c r="B301" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C301" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D301" s="39"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="20"/>
+      <c r="G301" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H301" s="39">
+        <v>2</v>
+      </c>
+      <c r="I301" s="9"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="40">
+        <v>43647</v>
+      </c>
+      <c r="B302" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C302" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D302" s="39"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="20"/>
+      <c r="G302" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H302" s="39">
+        <v>1</v>
+      </c>
+      <c r="I302" s="9"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="48">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="40">
+        <v>43678</v>
+      </c>
+      <c r="B303" s="20"/>
+      <c r="C303" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D303" s="39"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="20"/>
+      <c r="G303" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H303" s="39"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="20"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="40">
+        <v>43709</v>
+      </c>
+      <c r="B304" s="20"/>
+      <c r="C304" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D304" s="39"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="20"/>
+      <c r="G304" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H304" s="39"/>
+      <c r="I304" s="9"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="20"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" s="40">
+        <v>43739</v>
+      </c>
+      <c r="B305" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C305" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D305" s="39"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="20"/>
+      <c r="G305" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H305" s="39">
+        <v>1</v>
+      </c>
+      <c r="I305" s="9"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="48">
+        <v>43752</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" s="40">
+        <v>43770</v>
+      </c>
+      <c r="B306" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C306" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D306" s="39"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="20"/>
+      <c r="G306" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H306" s="39">
+        <v>2</v>
+      </c>
+      <c r="I306" s="9"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" s="40"/>
+      <c r="B307" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C307" s="13"/>
+      <c r="D307" s="39">
+        <v>1</v>
+      </c>
+      <c r="E307" s="9"/>
+      <c r="F307" s="20"/>
+      <c r="G307" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H307" s="39"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="48">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" s="40"/>
+      <c r="B308" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C308" s="13"/>
+      <c r="D308" s="39">
+        <v>2</v>
+      </c>
+      <c r="E308" s="9"/>
+      <c r="F308" s="20"/>
+      <c r="G308" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H308" s="39"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="40">
+        <v>43800</v>
+      </c>
+      <c r="B309" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C309" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D309" s="39"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="20"/>
+      <c r="G309" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H309" s="39">
+        <v>1</v>
+      </c>
+      <c r="I309" s="9"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="48">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B310" s="20"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="39"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="20"/>
+      <c r="G310" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H310" s="39"/>
+      <c r="I310" s="9"/>
+      <c r="J310" s="11"/>
+      <c r="K310" s="48"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B311" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C311" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D311" s="39"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="20"/>
+      <c r="G311" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H311" s="39">
+        <v>1</v>
+      </c>
+      <c r="I311" s="9"/>
+      <c r="J311" s="11"/>
+      <c r="K311" s="48">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="40"/>
+      <c r="B312" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C312" s="13"/>
+      <c r="D312" s="39"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="20"/>
+      <c r="G312" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H312" s="39"/>
+      <c r="I312" s="9"/>
+      <c r="J312" s="11"/>
+      <c r="K312" s="48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="40">
+        <v>43862</v>
+      </c>
+      <c r="B313" s="20"/>
+      <c r="C313" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D313" s="39"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="20"/>
+      <c r="G313" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H313" s="39"/>
+      <c r="I313" s="9"/>
+      <c r="J313" s="11"/>
+      <c r="K313" s="20"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="40">
+        <v>43891</v>
+      </c>
+      <c r="B314" s="20"/>
+      <c r="C314" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D314" s="39"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="20"/>
+      <c r="G314" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H314" s="39"/>
+      <c r="I314" s="9"/>
+      <c r="J314" s="11"/>
+      <c r="K314" s="20"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="40">
+        <v>43922</v>
+      </c>
+      <c r="B315" s="20"/>
+      <c r="C315" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D315" s="39"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="20"/>
+      <c r="G315" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H315" s="39"/>
+      <c r="I315" s="9"/>
+      <c r="J315" s="11"/>
+      <c r="K315" s="20"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="40">
+        <v>43952</v>
+      </c>
+      <c r="B316" s="20"/>
+      <c r="C316" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D316" s="39"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="20"/>
+      <c r="G316" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H316" s="39"/>
+      <c r="I316" s="9"/>
+      <c r="J316" s="11"/>
+      <c r="K316" s="20"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B317" s="20"/>
+      <c r="C317" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D317" s="39"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="20"/>
+      <c r="G317" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H317" s="39"/>
+      <c r="I317" s="9"/>
+      <c r="J317" s="11"/>
+      <c r="K317" s="20"/>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B318" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C318" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D318" s="39"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="20"/>
+      <c r="G318" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H318" s="39"/>
+      <c r="I318" s="9"/>
+      <c r="J318" s="11"/>
+      <c r="K318" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B319" s="20"/>
+      <c r="C319" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D319" s="39"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="20"/>
+      <c r="G319" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H319" s="39"/>
+      <c r="I319" s="9"/>
+      <c r="J319" s="11"/>
+      <c r="K319" s="20"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A320" s="40">
+        <v>44075</v>
+      </c>
+      <c r="B320" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C320" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D320" s="39">
+        <v>1</v>
+      </c>
+      <c r="E320" s="9"/>
+      <c r="F320" s="20"/>
+      <c r="G320" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H320" s="39"/>
+      <c r="I320" s="9"/>
+      <c r="J320" s="11"/>
+      <c r="K320" s="48">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="40"/>
+      <c r="B321" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C321" s="13"/>
+      <c r="D321" s="39"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="20"/>
+      <c r="G321" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H321" s="39">
+        <v>3</v>
+      </c>
+      <c r="I321" s="9"/>
+      <c r="J321" s="11"/>
+      <c r="K321" s="48" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" s="40"/>
+      <c r="B322" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C322" s="13"/>
+      <c r="D322" s="39"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="20"/>
+      <c r="G322" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H322" s="39">
+        <v>2</v>
+      </c>
+      <c r="I322" s="9"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="48" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B323" s="20"/>
+      <c r="C323" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D323" s="39"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="20"/>
+      <c r="G323" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H323" s="39"/>
+      <c r="I323" s="9"/>
+      <c r="J323" s="11"/>
+      <c r="K323" s="20"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B324" s="20"/>
+      <c r="C324" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D324" s="39"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="20"/>
+      <c r="G324" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H324" s="39"/>
+      <c r="I324" s="9"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="20"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B325" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C325" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D325" s="39"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="20"/>
+      <c r="G325" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H325" s="39">
+        <v>1</v>
+      </c>
+      <c r="I325" s="9"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="48">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="B326" s="20"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="39"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="20"/>
+      <c r="G326" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H326" s="39"/>
+      <c r="I326" s="9"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="48"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D327" s="39"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H327" s="39"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="20"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" s="40">
+        <v>44228</v>
+      </c>
+      <c r="B328" s="20"/>
+      <c r="C328" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D328" s="39"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H328" s="39"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="20"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="40">
+        <v>44256</v>
+      </c>
+      <c r="B329" s="20"/>
+      <c r="C329" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D329" s="39"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H329" s="39"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="20"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B330" s="20"/>
+      <c r="C330" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D330" s="39"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H330" s="39"/>
+      <c r="I330" s="9"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="20"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" s="40">
+        <v>44317</v>
+      </c>
+      <c r="B331" s="20"/>
+      <c r="C331" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D331" s="39"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H331" s="39"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="20"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" s="40">
+        <v>44348</v>
+      </c>
+      <c r="B332" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C332" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D332" s="39"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H332" s="39">
+        <v>3</v>
+      </c>
+      <c r="I332" s="9"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" s="40"/>
+      <c r="B333" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C333" s="13"/>
+      <c r="D333" s="39"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="20"/>
+      <c r="G333" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H333" s="39"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" s="40">
+        <v>44378</v>
+      </c>
+      <c r="B334" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C334" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D334" s="39"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="20"/>
+      <c r="G334" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H334" s="39">
+        <v>1</v>
+      </c>
+      <c r="I334" s="9"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="48">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" s="40"/>
+      <c r="B335" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C335" s="13"/>
+      <c r="D335" s="39">
+        <v>2</v>
+      </c>
+      <c r="E335" s="9"/>
+      <c r="F335" s="20"/>
+      <c r="G335" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H335" s="39"/>
+      <c r="I335" s="9"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="48"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B336" s="20"/>
+      <c r="C336" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D336" s="39"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="20"/>
+      <c r="G336" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H336" s="39"/>
+      <c r="I336" s="9"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="20"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" s="40">
+        <v>44440</v>
+      </c>
+      <c r="B337" s="20"/>
+      <c r="C337" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D337" s="39"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H337" s="39"/>
+      <c r="I337" s="9"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="20"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B338" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C338" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D338" s="39">
+        <v>1</v>
+      </c>
+      <c r="E338" s="9"/>
+      <c r="F338" s="20"/>
+      <c r="G338" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H338" s="39"/>
+      <c r="I338" s="9"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="48">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" s="40">
+        <v>44501</v>
+      </c>
+      <c r="B339" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C339" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D339" s="39"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="20"/>
+      <c r="G339" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H339" s="39"/>
+      <c r="I339" s="9"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="40"/>
+      <c r="B340" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C340" s="13"/>
+      <c r="D340" s="39">
+        <v>1</v>
+      </c>
+      <c r="E340" s="9"/>
+      <c r="F340" s="20"/>
+      <c r="G340" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H340" s="39"/>
+      <c r="I340" s="9"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="48">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="40"/>
+      <c r="B341" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C341" s="13"/>
+      <c r="D341" s="39">
+        <v>1</v>
+      </c>
+      <c r="E341" s="9"/>
+      <c r="F341" s="20"/>
+      <c r="G341" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H341" s="39"/>
+      <c r="I341" s="9"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="48">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B342" s="20"/>
+      <c r="C342" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D342" s="39"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="20"/>
+      <c r="G342" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H342" s="39"/>
+      <c r="I342" s="9"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="20"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="B343" s="20"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="39"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H343" s="39"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="20"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B344" s="20"/>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D344" s="39"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H344" s="39"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="20"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B345" s="20"/>
+      <c r="C345" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D345" s="39"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H345" s="39"/>
+      <c r="I345" s="9"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="20"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B346" s="20"/>
+      <c r="C346" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D346" s="39"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H346" s="39"/>
+      <c r="I346" s="9"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="20"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D347" s="39"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="20"/>
+      <c r="G347" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H347" s="39"/>
+      <c r="I347" s="9"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="20"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B348" s="20"/>
+      <c r="C348" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D348" s="39"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="20"/>
+      <c r="G348" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H348" s="39"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="20"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B349" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D349" s="39"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H349" s="39"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="11"/>
+      <c r="K349" s="48">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" s="40"/>
+      <c r="B350" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C350" s="13"/>
+      <c r="D350" s="39"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H350" s="39"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="40"/>
+      <c r="B351" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C351" s="13"/>
+      <c r="D351" s="39"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H351" s="39">
+        <v>1</v>
+      </c>
+      <c r="I351" s="9"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="48">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" s="40"/>
+      <c r="B352" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C352" s="13"/>
+      <c r="D352" s="39"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H352" s="39">
+        <v>1</v>
+      </c>
+      <c r="I352" s="9"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="48">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" s="40"/>
+      <c r="B353" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C353" s="13"/>
+      <c r="D353" s="39"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H353" s="39">
+        <v>1</v>
+      </c>
+      <c r="I353" s="9"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="48">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B354" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D354" s="39"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H354" s="39">
+        <v>1</v>
+      </c>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="48">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B355" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D355" s="39">
+        <v>1</v>
+      </c>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H355" s="39"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="48">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B356" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D356" s="39"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H356" s="39">
+        <v>1</v>
+      </c>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="48">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B357" s="20"/>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D357" s="39"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H357" s="39"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="20"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B358" s="20"/>
+      <c r="C358" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D358" s="39"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H358" s="39"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D359" s="39"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H359" s="39"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B360" s="20"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="39"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H360" s="39"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B361" s="20"/>
+      <c r="C361" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D361" s="39"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H361" s="39"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="20"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="40"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="39"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H362" s="39"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="40"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="39"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H363" s="39"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="20"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="40"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="39"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="39"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="20"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="40"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="39"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="39"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" s="40"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="39"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="39"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="20"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" s="40"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="39"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="39"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" s="40"/>
+      <c r="B368" s="20"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="39"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="20"/>
+      <c r="G368" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="39"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="20"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" s="40"/>
+      <c r="B369" s="20"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="39"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="20"/>
+      <c r="G369" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H369" s="39"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="20"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="40"/>
+      <c r="B370" s="20"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="39"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="20"/>
+      <c r="G370" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H370" s="39"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="20"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="40"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="39"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="20"/>
+      <c r="G371" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H371" s="39"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="20"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A372" s="40"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="13"/>
+      <c r="D372" s="39"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="20"/>
+      <c r="G372" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H372" s="39"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="20"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" s="40"/>
+      <c r="B373" s="20"/>
+      <c r="C373" s="13"/>
+      <c r="D373" s="39"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="20"/>
+      <c r="G373" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H373" s="39"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="20"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374" s="40"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="39"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="20"/>
+      <c r="G374" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H374" s="39"/>
+      <c r="I374" s="9"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="20"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="40"/>
+      <c r="B375" s="20"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="39"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="20"/>
+      <c r="G375" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H375" s="39"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="20"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A376" s="40"/>
+      <c r="B376" s="20"/>
+      <c r="C376" s="13"/>
+      <c r="D376" s="39"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="20"/>
+      <c r="G376" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H376" s="39"/>
+      <c r="I376" s="9"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="20"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A377" s="40"/>
+      <c r="B377" s="20"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="39"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="20"/>
+      <c r="G377" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H377" s="39"/>
+      <c r="I377" s="9"/>
+      <c r="J377" s="11"/>
+      <c r="K377" s="20"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A378" s="40"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="13"/>
+      <c r="D378" s="39"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="20"/>
+      <c r="G378" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H378" s="39"/>
+      <c r="I378" s="9"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="20"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" s="40"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="39"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="20"/>
+      <c r="G379" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H379" s="39"/>
+      <c r="I379" s="9"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="20"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A380" s="40"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="39"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="20"/>
+      <c r="G380" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H380" s="39"/>
+      <c r="I380" s="9"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="20"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" s="40"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="39"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="20"/>
+      <c r="G381" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H381" s="39"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="20"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" s="40"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="39"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="20"/>
+      <c r="G382" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H382" s="39"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="20"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" s="40"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="39"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="20"/>
+      <c r="G383" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H383" s="39"/>
+      <c r="I383" s="9"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="20"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384" s="40"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="39"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H384" s="39"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="20"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A385" s="40"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="39"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="20"/>
+      <c r="G385" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H385" s="39"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="20"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A386" s="40"/>
+      <c r="B386" s="20"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="39"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H386" s="39"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="20"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A387" s="40"/>
+      <c r="B387" s="20"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="39"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H387" s="39"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="20"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A388" s="40"/>
+      <c r="B388" s="20"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="39"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H388" s="39"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="20"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A389" s="40"/>
+      <c r="B389" s="20"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="39"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H389" s="39"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="20"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A390" s="40"/>
+      <c r="B390" s="20"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="39"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H390" s="39"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="20"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A391" s="40"/>
+      <c r="B391" s="20"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="39"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="20"/>
+      <c r="G391" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H391" s="39"/>
+      <c r="I391" s="9"/>
+      <c r="J391" s="11"/>
+      <c r="K391" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8649,17 +12260,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -8697,16 +12308,16 @@
       <c r="B3" s="11">
         <v>46.75</v>
       </c>
-      <c r="D3"/>
-      <c r="E3">
+      <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.32300000000000001</v>
+        <v>2.0169999999999999</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -8742,12 +12353,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5075C267-386B-4E58-B4DD-ED249042E2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6523D38-1A48-4161-B4FD-C85FC18FFB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="290">
   <si>
     <t>PERIOD</t>
   </si>
@@ -910,6 +902,9 @@
   </si>
   <si>
     <t>DOMESTIC 5/27</t>
+  </si>
+  <si>
+    <t>11/17,18</t>
   </si>
 </sst>
 </file>
@@ -1288,6 +1283,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1323,12 +1324,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3317,7 +3312,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K391" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K393" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3695,12 +3690,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K391"/>
+  <dimension ref="A2:K393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A349" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="G357" sqref="G357:G361"/>
+      <selection pane="bottomLeft" activeCell="B358" sqref="B358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3722,62 +3717,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3803,18 +3798,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3861,7 +3856,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56.675999999999945</v>
+        <v>52.675999999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8986,7 +8981,7 @@
       </c>
       <c r="I237" s="9"/>
       <c r="J237" s="12"/>
-      <c r="K237" s="61">
+      <c r="K237" s="49">
         <v>42650</v>
       </c>
     </row>
@@ -9008,7 +9003,7 @@
       </c>
       <c r="I238" s="9"/>
       <c r="J238" s="12"/>
-      <c r="K238" s="61" t="s">
+      <c r="K238" s="49" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9030,7 +9025,7 @@
       </c>
       <c r="I239" s="9"/>
       <c r="J239" s="12"/>
-      <c r="K239" s="61">
+      <c r="K239" s="49">
         <v>42646</v>
       </c>
     </row>
@@ -9052,7 +9047,7 @@
       <c r="H240" s="42"/>
       <c r="I240" s="9"/>
       <c r="J240" s="12"/>
-      <c r="K240" s="61"/>
+      <c r="K240" s="49"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
@@ -9076,7 +9071,7 @@
       </c>
       <c r="I241" s="9"/>
       <c r="J241" s="12"/>
-      <c r="K241" s="61">
+      <c r="K241" s="49">
         <v>42702</v>
       </c>
     </row>
@@ -9098,7 +9093,7 @@
       <c r="H242" s="42"/>
       <c r="I242" s="9"/>
       <c r="J242" s="12"/>
-      <c r="K242" s="61"/>
+      <c r="K242" s="49"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
@@ -10366,7 +10361,7 @@
       <c r="H299" s="39"/>
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
-      <c r="K299" s="62" t="s">
+      <c r="K299" s="50" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11622,7 +11617,9 @@
       <c r="A357" s="40">
         <v>44835</v>
       </c>
-      <c r="B357" s="20"/>
+      <c r="B357" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C357" s="13">
         <v>1.25</v>
       </c>
@@ -11636,13 +11633,17 @@
       <c r="H357" s="39"/>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
-      <c r="K357" s="20"/>
+      <c r="K357" s="48">
+        <v>44859</v>
+      </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>44866</v>
       </c>
-      <c r="B358" s="20"/>
+      <c r="B358" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C358" s="13">
         <v>1.25</v>
       </c>
@@ -11656,68 +11657,84 @@
       <c r="H358" s="39"/>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
-      <c r="K358" s="20"/>
+      <c r="K358" s="48">
+        <v>44890</v>
+      </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B359" s="20"/>
-      <c r="C359" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D359" s="39"/>
+      <c r="A359" s="40"/>
+      <c r="B359" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C359" s="13"/>
+      <c r="D359" s="39">
+        <v>2</v>
+      </c>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G359" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H359" s="39"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
-      <c r="K359" s="20"/>
+      <c r="K359" s="48" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B360" s="20"/>
-      <c r="C360" s="13"/>
-      <c r="D360" s="39"/>
+      <c r="A360" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B360" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C360" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D360" s="39">
+        <v>1</v>
+      </c>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G360" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H360" s="39"/>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
-      <c r="K360" s="20"/>
+      <c r="K360" s="48">
+        <v>44904</v>
+      </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A361" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B361" s="20"/>
-      <c r="C361" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D361" s="39"/>
+      <c r="A361" s="40"/>
+      <c r="B361" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C361" s="13"/>
+      <c r="D361" s="39">
+        <v>1</v>
+      </c>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H361" s="39"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="20"/>
+      <c r="K361" s="48">
+        <v>44902</v>
+      </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="40"/>
+      <c r="A362" s="47" t="s">
+        <v>46</v>
+      </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
@@ -11733,15 +11750,19 @@
       <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="40"/>
+      <c r="A363" s="40">
+        <v>44927</v>
+      </c>
       <c r="B363" s="20"/>
-      <c r="C363" s="13"/>
+      <c r="C363" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D363" s="39"/>
       <c r="E363" s="9"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G363" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H363" s="39"/>
       <c r="I363" s="9"/>
@@ -12195,6 +12216,38 @@
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A392" s="40"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="13"/>
+      <c r="D392" s="39"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="20"/>
+      <c r="G392" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H392" s="39"/>
+      <c r="I392" s="9"/>
+      <c r="J392" s="11"/>
+      <c r="K392" s="20"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A393" s="40"/>
+      <c r="B393" s="20"/>
+      <c r="C393" s="13"/>
+      <c r="D393" s="39"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H393" s="39"/>
+      <c r="I393" s="9"/>
+      <c r="J393" s="11"/>
+      <c r="K393" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12242,7 +12295,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12260,17 +12313,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -12353,12 +12406,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
+++ b/REGULAR/ACCOUNTING/DELA GRACIA, MA. CECILIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="300">
   <si>
     <t>PERIOD</t>
   </si>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t>UT(0-1-56)</t>
+  </si>
+  <si>
+    <t>12/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1802,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1845,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1909,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1969,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2035,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2098,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2196,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2255,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2320,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2363,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2438,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2624,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2690,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2748,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2814,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2870,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,7 +2945,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2988,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3054,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3110,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3208,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3271,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3337,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K403" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K404" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3712,12 +3715,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K403"/>
+  <dimension ref="A2:K404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A370" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E381" sqref="E381"/>
+      <selection pane="bottomLeft" activeCell="H380" sqref="H380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,7 +3881,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.312999999999946</v>
+        <v>58.062999999999946</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3888,7 +3891,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>182.75</v>
+        <v>185.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12156,13 +12159,15 @@
       <c r="B380" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C380" s="13"/>
+      <c r="C380" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D380" s="39"/>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G380" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H380" s="39">
         <v>1</v>
@@ -12199,27 +12204,37 @@
       <c r="A382" s="40">
         <v>45200</v>
       </c>
-      <c r="B382" s="20"/>
-      <c r="C382" s="13"/>
+      <c r="B382" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C382" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D382" s="39"/>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H382" s="39"/>
+      <c r="G382" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H382" s="39">
+        <v>1</v>
+      </c>
       <c r="I382" s="9"/>
       <c r="J382" s="11"/>
-      <c r="K382" s="20"/>
+      <c r="K382" s="48">
+        <v>45225</v>
+      </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B383" s="20"/>
+      <c r="A383" s="40"/>
+      <c r="B383" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="C383" s="13"/>
-      <c r="D383" s="39"/>
+      <c r="D383" s="39">
+        <v>1</v>
+      </c>
       <c r="E383" s="9"/>
       <c r="F383" s="20"/>
       <c r="G383" s="13" t="str">
@@ -12229,29 +12244,39 @@
       <c r="H383" s="39"/>
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
-      <c r="K383" s="20"/>
+      <c r="K383" s="48">
+        <v>45236</v>
+      </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B384" s="20"/>
-      <c r="C384" s="13"/>
-      <c r="D384" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B384" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C384" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D384" s="39">
+        <v>2</v>
+      </c>
       <c r="E384" s="9"/>
       <c r="F384" s="20"/>
-      <c r="G384" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G384" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H384" s="39"/>
       <c r="I384" s="9"/>
       <c r="J384" s="11"/>
-      <c r="K384" s="20"/>
+      <c r="K384" s="20" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -12269,7 +12294,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -12287,7 +12312,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -12305,7 +12330,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -12323,7 +12348,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -12341,7 +12366,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -12359,7 +12384,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -12377,7 +12402,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -12395,7 +12420,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -12413,7 +12438,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -12431,7 +12456,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -12449,7 +12474,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -12466,7 +12491,9 @@
       <c r="K396" s="20"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="40"/>
+      <c r="A397" s="40">
+        <v>45627</v>
+      </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
       <c r="D397" s="39"/>
@@ -12576,6 +12603,22 @@
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A404" s="40"/>
+      <c r="B404" s="20"/>
+      <c r="C404" s="13"/>
+      <c r="D404" s="39"/>
+      <c r="E404" s="9"/>
+      <c r="F404" s="20"/>
+      <c r="G404" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H404" s="39"/>
+      <c r="I404" s="9"/>
+      <c r="J404" s="11"/>
+      <c r="K404" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
